--- a/dmWipWo.xlsx
+++ b/dmWipWo.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>65C1805</v>
+        <v>65C1806</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -416,7 +416,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>65F1805</v>
+        <v>65F1806</v>
       </c>
       <c r="B3" t="str">
         <v>WOBS</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>65M1805</v>
+        <v>65M1806</v>
       </c>
       <c r="B4" t="str">
         <v/>
@@ -450,7 +450,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>65P1805</v>
+        <v>65P1806</v>
       </c>
       <c r="B5" t="str">
         <v>WOBS</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>65R1805</v>
+        <v>65R1806</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -484,7 +484,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>65T1805</v>
+        <v>65T1806</v>
       </c>
       <c r="B7" t="str">
         <v>WOBS</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>65V1805</v>
+        <v>65V1806</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -518,7 +518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>65W1805</v>
+        <v>65W1806</v>
       </c>
       <c r="B9" t="str">
         <v>WOBS</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>65X1805</v>
+        <v>65X1806</v>
       </c>
       <c r="B10" t="str">
         <v>WOBS</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>65Y1805</v>
+        <v>65Y1806</v>
       </c>
       <c r="B11" t="str">
         <v>WOBS</v>
@@ -790,112 +790,112 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>6545328</v>
+        <v>6545418</v>
       </c>
       <c r="B25" t="str">
-        <v>03MD00530</v>
+        <v>0B4D01688</v>
       </c>
       <c r="C25" t="str">
-        <v>D5H</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>V002540</v>
+        <v>V000331</v>
       </c>
       <c r="E25" t="str">
-        <v>DOZER HEAVY EQUIPMENT</v>
+        <v>BAY CREEK HOUSE/OLD FORT BAY</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>6545418</v>
+        <v>6545675</v>
       </c>
       <c r="B26" t="str">
-        <v>0B4D01688</v>
+        <v>300079644</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>600S</v>
       </c>
       <c r="D26" t="str">
-        <v>V000331</v>
+        <v>S655478</v>
       </c>
       <c r="E26" t="str">
-        <v>BAY CREEK HOUSE/OLD FORT BAY</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>6545675</v>
+        <v>6545717</v>
       </c>
       <c r="B27" t="str">
-        <v>300079644</v>
+        <v>0YAK00114</v>
       </c>
       <c r="C27" t="str">
-        <v>600S</v>
+        <v>3512</v>
       </c>
       <c r="D27" t="str">
-        <v>S655478</v>
+        <v>V001710</v>
       </c>
       <c r="E27" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>MORTON BAHAMAS LTD.</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>6545717</v>
+        <v>6545725</v>
       </c>
       <c r="B28" t="str">
-        <v>0YAK00114</v>
+        <v>0PAG00164</v>
       </c>
       <c r="C28" t="str">
-        <v>3512</v>
+        <v/>
       </c>
       <c r="D28" t="str">
-        <v>V001710</v>
+        <v>C6560KK</v>
       </c>
       <c r="E28" t="str">
-        <v>MORTON BAHAMAS LTD.</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>6545725</v>
+        <v>6545860</v>
       </c>
       <c r="B29" t="str">
-        <v>0PAG00164</v>
+        <v>0RPF05979</v>
       </c>
       <c r="C29" t="str">
         <v/>
       </c>
       <c r="D29" t="str">
-        <v>C6560KK</v>
+        <v>S6560KA</v>
       </c>
       <c r="E29" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>6545787</v>
+        <v>6545862</v>
       </c>
       <c r="B30" t="str">
-        <v>0S1M04921</v>
+        <v>0MPN00320</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>VG91640</v>
+        <v>S6560KA</v>
       </c>
       <c r="E30" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>6545860</v>
+        <v>6545869</v>
       </c>
       <c r="B31" t="str">
-        <v>0RPF05979</v>
+        <v>0RNS00183</v>
       </c>
       <c r="C31" t="str">
         <v/>
@@ -909,10 +909,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>6545862</v>
+        <v>6545872</v>
       </c>
       <c r="B32" t="str">
-        <v>0MPN00320</v>
+        <v>0RPS03683</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -926,10 +926,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>6545869</v>
+        <v>6545873</v>
       </c>
       <c r="B33" t="str">
-        <v>0RNS00183</v>
+        <v>E6342D/002</v>
       </c>
       <c r="C33" t="str">
         <v/>
@@ -943,132 +943,132 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>6545872</v>
+        <v>6545888</v>
       </c>
       <c r="B34" t="str">
-        <v>0RPS03683</v>
+        <v>0C5H01717</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D34" t="str">
-        <v>S6560KA</v>
+        <v>V002598</v>
       </c>
       <c r="E34" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>SOL PETROLEUM BAHAMAS LTD.</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>6545873</v>
+        <v>6545897</v>
       </c>
       <c r="B35" t="str">
-        <v>E6342D/002</v>
+        <v>0J3R03786</v>
       </c>
       <c r="C35" t="str">
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>S6560KA</v>
+        <v>S6555KK</v>
       </c>
       <c r="E35" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY EXTERNAL</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>6545888</v>
+        <v>6545945</v>
       </c>
       <c r="B36" t="str">
-        <v>0C5H01717</v>
+        <v>EC502225</v>
       </c>
       <c r="C36" t="str">
-        <v>C15</v>
+        <v>DE65E0</v>
       </c>
       <c r="D36" t="str">
-        <v>V002598</v>
+        <v>S655070</v>
       </c>
       <c r="E36" t="str">
-        <v>SOL PETROLEUM BAHAMAS LTD.</v>
+        <v>COMMISSIONING CAT NEW EQ</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>6545897</v>
+        <v>6545979</v>
       </c>
       <c r="B37" t="str">
-        <v>0J3R03786</v>
+        <v>0XPL00101</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>C9 PKGG</v>
       </c>
       <c r="D37" t="str">
-        <v>S6555KK</v>
+        <v>VG91640</v>
       </c>
       <c r="E37" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>6545945</v>
+        <v>6545984</v>
       </c>
       <c r="B38" t="str">
-        <v>EC502225</v>
+        <v>0C2Y02024</v>
       </c>
       <c r="C38" t="str">
-        <v>DE65E0</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>S655070</v>
+        <v>S6560KA</v>
       </c>
       <c r="E38" t="str">
-        <v>COMMISSIONING CAT NEW EQ</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>6545958</v>
+        <v>6546021</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>067U21515</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>3408B</v>
       </c>
       <c r="D39" t="str">
-        <v>V001943</v>
+        <v>V002795</v>
       </c>
       <c r="E39" t="str">
-        <v>NORWGIAN CRUISE LINES</v>
+        <v>CONSOLIDATED WATER(BAH)LTD.</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>6545979</v>
+        <v>6546031</v>
       </c>
       <c r="B40" t="str">
-        <v>0XPL00101</v>
+        <v>011706508</v>
       </c>
       <c r="C40" t="str">
-        <v>C9 PKGG</v>
+        <v>GEP33-1</v>
       </c>
       <c r="D40" t="str">
-        <v>VG91640</v>
+        <v>S6560KA</v>
       </c>
       <c r="E40" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>6545984</v>
+        <v>6546035</v>
       </c>
       <c r="B41" t="str">
-        <v>0C2Y02024</v>
+        <v>0C5H01735</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D41" t="str">
         <v>S6560KA</v>
@@ -1079,30 +1079,30 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>6546021</v>
+        <v>6546036</v>
       </c>
       <c r="B42" t="str">
-        <v>067U21515</v>
+        <v>0C5H01737</v>
       </c>
       <c r="C42" t="str">
-        <v>3408B</v>
+        <v>C15</v>
       </c>
       <c r="D42" t="str">
-        <v>V002795</v>
+        <v>S6560KA</v>
       </c>
       <c r="E42" t="str">
-        <v>CONSOLIDATED WATER(BAH)LTD.</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>6546031</v>
+        <v>6546037</v>
       </c>
       <c r="B43" t="str">
-        <v>011706508</v>
+        <v>0C5H01734</v>
       </c>
       <c r="C43" t="str">
-        <v>GEP33-1</v>
+        <v>C15</v>
       </c>
       <c r="D43" t="str">
         <v>S6560KA</v>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>6546035</v>
+        <v>6546040</v>
       </c>
       <c r="B44" t="str">
-        <v>0C5H01735</v>
+        <v>011705782</v>
       </c>
       <c r="C44" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <v>S6560KA</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>6546036</v>
+        <v>6546133</v>
       </c>
       <c r="B45" t="str">
-        <v>0C5H01737</v>
+        <v>E6342D/002</v>
       </c>
       <c r="C45" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D45" t="str">
         <v>S6560KA</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>6546037</v>
+        <v>6546134</v>
       </c>
       <c r="B46" t="str">
-        <v>0C5H01734</v>
+        <v>3077214</v>
       </c>
       <c r="C46" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D46" t="str">
         <v>S6560KA</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>6546040</v>
+        <v>6546138</v>
       </c>
       <c r="B47" t="str">
-        <v>011705782</v>
+        <v>0LEZ06911</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>GEP65-9 SA</v>
       </c>
       <c r="D47" t="str">
         <v>S6560KA</v>
@@ -1181,319 +1181,319 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>6546051</v>
+        <v>6546139</v>
       </c>
       <c r="B48" t="str">
-        <v>0B4S00476</v>
+        <v>U543442</v>
       </c>
       <c r="C48" t="str">
         <v/>
       </c>
       <c r="D48" t="str">
-        <v>V000094</v>
+        <v>S6560KA</v>
       </c>
       <c r="E48" t="str">
-        <v>ALFREDO GRUMSER</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>6546055</v>
+        <v>6546140</v>
       </c>
       <c r="B49" t="str">
-        <v>0CMD00629</v>
+        <v>0RPF00489</v>
       </c>
       <c r="C49" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>VG90190</v>
+        <v>S6560KA</v>
       </c>
       <c r="E49" t="str">
-        <v>B.E.C. FAMILY ISLAND</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>6546133</v>
+        <v>6546169</v>
       </c>
       <c r="B50" t="str">
-        <v>E6342D/002</v>
+        <v>67U</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50" t="str">
-        <v>S6560KA</v>
+        <v>V002795</v>
       </c>
       <c r="E50" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER(BAH)LTD.</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>6546134</v>
+        <v>6546197</v>
       </c>
       <c r="B51" t="str">
-        <v>3077214</v>
+        <v>AT35A01223</v>
       </c>
       <c r="C51" t="str">
-        <v/>
+        <v>GP25NM</v>
       </c>
       <c r="D51" t="str">
-        <v>S6560KA</v>
+        <v>S655478</v>
       </c>
       <c r="E51" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>6546138</v>
+        <v>6546226</v>
       </c>
       <c r="B52" t="str">
-        <v>0LEZ06911</v>
+        <v>04RG02412</v>
       </c>
       <c r="C52" t="str">
-        <v>GEP65-9 SA</v>
+        <v>3406</v>
       </c>
       <c r="D52" t="str">
-        <v>S6560KA</v>
+        <v>V002789</v>
       </c>
       <c r="E52" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>POINCIANA SPV LTD..</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>6546139</v>
+        <v>6546285</v>
       </c>
       <c r="B53" t="str">
-        <v>U543442</v>
+        <v>004B15027</v>
       </c>
       <c r="C53" t="str">
-        <v/>
+        <v>3304</v>
       </c>
       <c r="D53" t="str">
-        <v>S6560KA</v>
+        <v>S6560HH</v>
       </c>
       <c r="E53" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES PARTS DPT</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>6546140</v>
+        <v>6546378</v>
       </c>
       <c r="B54" t="str">
-        <v>0RPF00489</v>
+        <v>0JAW00803</v>
       </c>
       <c r="C54" t="str">
-        <v/>
+        <v>C2</v>
       </c>
       <c r="D54" t="str">
-        <v>S6560KA</v>
+        <v>C6560KK</v>
       </c>
       <c r="E54" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>6546169</v>
+        <v>6546381</v>
       </c>
       <c r="B55" t="str">
-        <v>67U</v>
+        <v>EC301862</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>DE33E0</v>
       </c>
       <c r="D55" t="str">
-        <v>V002795</v>
+        <v>V000243</v>
       </c>
       <c r="E55" t="str">
-        <v>CONSOLIDATED WATER(BAH)LTD.</v>
+        <v>BLACK ISLE MANAGEMENT SERVIC</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>6546197</v>
+        <v>6546437</v>
       </c>
       <c r="B56" t="str">
-        <v>AT35A01223</v>
+        <v>0B4S00762</v>
       </c>
       <c r="C56" t="str">
-        <v>GP25NM</v>
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>S655478</v>
+        <v>S6560KA</v>
       </c>
       <c r="E56" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>6546226</v>
+        <v>6546471</v>
       </c>
       <c r="B57" t="str">
-        <v>04RG02412</v>
+        <v>0RNY02723</v>
       </c>
       <c r="C57" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>V002789</v>
+        <v>VG91640</v>
       </c>
       <c r="E57" t="str">
-        <v>POINCIANA SPV LTD..</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>6546254</v>
+        <v>6546481</v>
       </c>
       <c r="B58" t="str">
-        <v>03U2822F</v>
+        <v>AT3520684</v>
       </c>
       <c r="C58" t="str">
-        <v/>
+        <v>P5000</v>
       </c>
       <c r="D58" t="str">
-        <v>C6560KK</v>
+        <v>V001393</v>
       </c>
       <c r="E58" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>KEVIN NOVELLA</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>6546260</v>
+        <v>6546495</v>
       </c>
       <c r="B59" t="str">
-        <v>0RNS08438</v>
+        <v>06XF00582</v>
       </c>
       <c r="C59" t="str">
-        <v>GEH220</v>
+        <v>446</v>
       </c>
       <c r="D59" t="str">
-        <v>V004179</v>
+        <v>V000481</v>
       </c>
       <c r="E59" t="str">
-        <v>LAKEFIELD LTD.</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>6546285</v>
+        <v>6546496</v>
       </c>
       <c r="B60" t="str">
-        <v>004B15027</v>
+        <v>AT3540563</v>
       </c>
       <c r="C60" t="str">
-        <v>3304</v>
+        <v>P5000 G-LP</v>
       </c>
       <c r="D60" t="str">
-        <v>S6560HH</v>
+        <v>V001920</v>
       </c>
       <c r="E60" t="str">
-        <v>INTERNAL CHARGES PARTS DPT</v>
+        <v>NEW PROVIDENCE WATER DEVELOP</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>6546323</v>
+        <v>6546498</v>
       </c>
       <c r="B61" t="str">
-        <v>AT3540563</v>
+        <v>09ES02470</v>
       </c>
       <c r="C61" t="str">
-        <v>P5000 G-LP</v>
+        <v>3406C</v>
       </c>
       <c r="D61" t="str">
-        <v>V001920</v>
+        <v>V001738</v>
       </c>
       <c r="E61" t="str">
-        <v>NEW PROVIDENCE WATER DEVELOP</v>
+        <v>MOSKO'S SHOPPING CENTER</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>6546360</v>
+        <v>6546524</v>
       </c>
       <c r="B62" t="str">
-        <v>20168030054</v>
+        <v>0RNS02796</v>
       </c>
       <c r="C62" t="str">
-        <v>375DPQ-CA</v>
+        <v/>
       </c>
       <c r="D62" t="str">
-        <v>S655478</v>
+        <v>V000309</v>
       </c>
       <c r="E62" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>MASTER TECHNICIANS LTD.</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>6546378</v>
+        <v>6546530</v>
       </c>
       <c r="B63" t="str">
-        <v>0JAW00803</v>
+        <v>44581453</v>
       </c>
       <c r="C63" t="str">
-        <v>C2</v>
+        <v/>
       </c>
       <c r="D63" t="str">
-        <v>C6560KK</v>
+        <v>S6560KA</v>
       </c>
       <c r="E63" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>6546381</v>
+        <v>6546532</v>
       </c>
       <c r="B64" t="str">
-        <v>EC301862</v>
+        <v>0T3T00196</v>
       </c>
       <c r="C64" t="str">
-        <v>DE33E0</v>
+        <v>C32</v>
       </c>
       <c r="D64" t="str">
-        <v>V000243</v>
+        <v>S6555KK</v>
       </c>
       <c r="E64" t="str">
-        <v>BLACK ISLE MANAGEMENT SERVIC</v>
+        <v>CAT WARRANTY EXTERNAL</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>6546437</v>
+        <v>6546550</v>
       </c>
       <c r="B65" t="str">
-        <v>0B4S00762</v>
+        <v>CT5410022</v>
       </c>
       <c r="C65" t="str">
-        <v/>
+        <v>GP20S</v>
       </c>
       <c r="D65" t="str">
-        <v>S6560KA</v>
+        <v>S655478</v>
       </c>
       <c r="E65" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>6546457</v>
+        <v>6546553</v>
       </c>
       <c r="B66" t="str">
-        <v>083Z01965</v>
+        <v>0RNS00183</v>
       </c>
       <c r="C66" t="str">
-        <v>3304</v>
+        <v/>
       </c>
       <c r="D66" t="str">
         <v>S6560KA</v>
@@ -1504,591 +1504,591 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>6546471</v>
+        <v>6546556</v>
       </c>
       <c r="B67" t="str">
-        <v>0RNY02723</v>
+        <v>011601824</v>
       </c>
       <c r="C67" t="str">
         <v/>
       </c>
       <c r="D67" t="str">
-        <v>VG91640</v>
+        <v>V002798</v>
       </c>
       <c r="E67" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>UNIVERSAL BEAUTY SUPPLY</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>6546481</v>
+        <v>6546569</v>
       </c>
       <c r="B68" t="str">
-        <v>AT3520684</v>
+        <v>0T3T00141</v>
       </c>
       <c r="C68" t="str">
-        <v>P5000</v>
+        <v>C32</v>
       </c>
       <c r="D68" t="str">
-        <v>V001393</v>
+        <v>V000481</v>
       </c>
       <c r="E68" t="str">
-        <v>KEVIN NOVELLA</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>6546491</v>
+        <v>6546570</v>
       </c>
       <c r="B69" t="str">
-        <v>05BL02646</v>
+        <v>03JK00957</v>
       </c>
       <c r="C69" t="str">
-        <v>446B</v>
+        <v>3412C</v>
       </c>
       <c r="D69" t="str">
-        <v>VG90194</v>
+        <v>V000481</v>
       </c>
       <c r="E69" t="str">
-        <v>B.E.C. TRANSPORT</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>6546495</v>
+        <v>6546574</v>
       </c>
       <c r="B70" t="str">
-        <v>06XF00582</v>
+        <v>T3300181</v>
       </c>
       <c r="C70" t="str">
-        <v>446</v>
+        <v>C15-500</v>
       </c>
       <c r="D70" t="str">
-        <v>V000481</v>
+        <v>S6560KA</v>
       </c>
       <c r="E70" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>6546496</v>
+        <v>6546580</v>
       </c>
       <c r="B71" t="str">
-        <v>AT3540563</v>
+        <v>0RPF01809</v>
       </c>
       <c r="C71" t="str">
-        <v>P5000 G-LP</v>
+        <v/>
       </c>
       <c r="D71" t="str">
-        <v>V001920</v>
+        <v>V002852</v>
       </c>
       <c r="E71" t="str">
-        <v>NEW PROVIDENCE WATER DEVELOP</v>
+        <v>SECONDSIDE - DE RAVENEL</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>6546498</v>
+        <v>6546587</v>
       </c>
       <c r="B72" t="str">
-        <v>09ES02470</v>
+        <v>0BPD00714</v>
       </c>
       <c r="C72" t="str">
-        <v>3406C</v>
+        <v>XQ2000</v>
       </c>
       <c r="D72" t="str">
-        <v>V001738</v>
+        <v>S655092</v>
       </c>
       <c r="E72" t="str">
-        <v>MOSKO'S SHOPPING CENTER</v>
+        <v>COMMISSIONING NON CAT NEW</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>6546522</v>
+        <v>6546591</v>
       </c>
       <c r="B73" t="str">
-        <v>0LEZ06691</v>
+        <v>B4SD0155</v>
       </c>
       <c r="C73" t="str">
-        <v>GEP65-9</v>
+        <v/>
       </c>
       <c r="D73" t="str">
-        <v>S6560KA</v>
+        <v>V001818</v>
       </c>
       <c r="E73" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>NASSAU SIGHT CENTRE LTD.</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>6546523</v>
+        <v>6546592</v>
       </c>
       <c r="B74" t="str">
-        <v>0LEZ06533</v>
+        <v>0LEN01092</v>
       </c>
       <c r="C74" t="str">
-        <v>GEP65-9</v>
+        <v/>
       </c>
       <c r="D74" t="str">
-        <v>S6560KA</v>
+        <v>C6560KK</v>
       </c>
       <c r="E74" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>6546524</v>
+        <v>6546595</v>
       </c>
       <c r="B75" t="str">
-        <v>0RNS02796</v>
+        <v>083Z01965</v>
       </c>
       <c r="C75" t="str">
-        <v/>
+        <v>3304</v>
       </c>
       <c r="D75" t="str">
-        <v>V000309</v>
+        <v>C6560KK</v>
       </c>
       <c r="E75" t="str">
-        <v>MASTER TECHNICIANS LTD.</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>6546530</v>
+        <v>6546598</v>
       </c>
       <c r="B76" t="str">
-        <v>44581453</v>
+        <v>GT400507</v>
       </c>
       <c r="C76" t="str">
         <v/>
       </c>
       <c r="D76" t="str">
-        <v>S6560KA</v>
+        <v>V000739</v>
       </c>
       <c r="E76" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>DELAPORTE POINT LTD.</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>6546532</v>
+        <v>6546601</v>
       </c>
       <c r="B77" t="str">
-        <v>0T3T00196</v>
+        <v>04ZR02432</v>
       </c>
       <c r="C77" t="str">
-        <v>C32</v>
+        <v>3406</v>
       </c>
       <c r="D77" t="str">
-        <v>S6555KK</v>
+        <v>VG91658</v>
       </c>
       <c r="E77" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>POST OFFICE DEPARTMENT</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>6546541</v>
+        <v>6546622</v>
       </c>
       <c r="B78" t="str">
-        <v>04RG02412</v>
+        <v>011600156</v>
       </c>
       <c r="C78" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D78" t="str">
-        <v>S6560KA</v>
+        <v>V002418</v>
       </c>
       <c r="E78" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>PHILIP POOL JR</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>6546543</v>
+        <v>6546624</v>
       </c>
       <c r="B79" t="str">
-        <v>0T3T00141</v>
+        <v>0BNR00346</v>
       </c>
       <c r="C79" t="str">
-        <v>C32</v>
+        <v/>
       </c>
       <c r="D79" t="str">
-        <v>S6555KK</v>
+        <v>E655470</v>
       </c>
       <c r="E79" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>CAT RENTAL MAINTENANCE CAT</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>6546550</v>
+        <v>6546633</v>
       </c>
       <c r="B80" t="str">
-        <v>A</v>
+        <v>0FTH02783</v>
       </c>
       <c r="C80" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D80" t="str">
-        <v>S655478</v>
+        <v>C6560KK</v>
       </c>
       <c r="E80" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>6546553</v>
+        <v>6546634</v>
       </c>
       <c r="B81" t="str">
-        <v>0RNS00183</v>
+        <v>AT9006194</v>
       </c>
       <c r="C81" t="str">
-        <v/>
+        <v>C5000</v>
       </c>
       <c r="D81" t="str">
-        <v>S6560KA</v>
+        <v>V000481</v>
       </c>
       <c r="E81" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>6546554</v>
+        <v>6546640</v>
       </c>
       <c r="B82" t="str">
-        <v>0RPS02638</v>
+        <v>FAFL001363</v>
       </c>
       <c r="C82" t="str">
-        <v/>
+        <v>3304</v>
       </c>
       <c r="D82" t="str">
-        <v>V000207</v>
+        <v>VG91640</v>
       </c>
       <c r="E82" t="str">
-        <v>BAHAMAS INTERNATIONAL FOODS</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>6546555</v>
+        <v>6546648</v>
       </c>
       <c r="B83" t="str">
-        <v>B4501967</v>
+        <v>0C5H01736</v>
       </c>
       <c r="C83" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D83" t="str">
-        <v>V002483</v>
+        <v>V002588</v>
       </c>
       <c r="E83" t="str">
-        <v>ROYAL BANK OF CANADA</v>
+        <v>SOUTH WEST PLAZA</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>6546556</v>
+        <v>6546650</v>
       </c>
       <c r="B84" t="str">
-        <v>011601824</v>
+        <v>MIS</v>
       </c>
       <c r="C84" t="str">
         <v/>
       </c>
       <c r="D84" t="str">
-        <v>V002798</v>
+        <v>VG91640</v>
       </c>
       <c r="E84" t="str">
-        <v>UNIVERSAL BEAUTY SUPPLY</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>6546569</v>
+        <v>6546663</v>
       </c>
       <c r="B85" t="str">
-        <v>0T3T00141</v>
+        <v>004B15027</v>
       </c>
       <c r="C85" t="str">
-        <v>C32</v>
+        <v>3304</v>
       </c>
       <c r="D85" t="str">
-        <v>V000481</v>
+        <v>S6560KA</v>
       </c>
       <c r="E85" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>6546570</v>
+        <v>6546682</v>
       </c>
       <c r="B86" t="str">
-        <v>03JK00957</v>
+        <v>0WYB00252</v>
       </c>
       <c r="C86" t="str">
-        <v>3412C</v>
+        <v>C175-16</v>
       </c>
       <c r="D86" t="str">
-        <v>V000481</v>
+        <v>V001338</v>
       </c>
       <c r="E86" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>ST.GEORGE'S CAY POWER</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>6546574</v>
+        <v>6546689</v>
       </c>
       <c r="B87" t="str">
-        <v>T3300181</v>
+        <v>MIS</v>
       </c>
       <c r="C87" t="str">
-        <v>C15-500</v>
+        <v/>
       </c>
       <c r="D87" t="str">
-        <v>S6560KA</v>
+        <v>VG92845</v>
       </c>
       <c r="E87" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>WATER &amp; SEWERAGE CORPORATION</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>6546580</v>
+        <v>6546694</v>
       </c>
       <c r="B88" t="str">
-        <v>0RPF01809</v>
+        <v>0LEN03687</v>
       </c>
       <c r="C88" t="str">
-        <v/>
+        <v>GEP110</v>
       </c>
       <c r="D88" t="str">
-        <v>V002852</v>
+        <v>S6560KA</v>
       </c>
       <c r="E88" t="str">
-        <v>SECONDSIDE - DE RAVENEL</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>6546586</v>
+        <v>6546699</v>
       </c>
       <c r="B89" t="str">
-        <v>0BPD00708</v>
+        <v>011705782</v>
       </c>
       <c r="C89" t="str">
         <v/>
       </c>
       <c r="D89" t="str">
-        <v>S655092</v>
+        <v>S6560KA</v>
       </c>
       <c r="E89" t="str">
-        <v>COMMISSIONING NON CAT NEW</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>6546587</v>
+        <v>6546709</v>
       </c>
       <c r="B90" t="str">
-        <v>0BPD00714</v>
+        <v>0B4H00377</v>
       </c>
       <c r="C90" t="str">
         <v/>
       </c>
       <c r="D90" t="str">
-        <v>S655092</v>
+        <v>S6560KA</v>
       </c>
       <c r="E90" t="str">
-        <v>COMMISSIONING NON CAT NEW</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>6546591</v>
+        <v>6546710</v>
       </c>
       <c r="B91" t="str">
-        <v>B4SD0155</v>
+        <v>0E3S01965</v>
       </c>
       <c r="C91" t="str">
         <v/>
       </c>
       <c r="D91" t="str">
-        <v>V001818</v>
+        <v>S6560KA</v>
       </c>
       <c r="E91" t="str">
-        <v>NASSAU SIGHT CENTRE LTD.</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>6546592</v>
+        <v>6546714</v>
       </c>
       <c r="B92" t="str">
-        <v>0LEN01092</v>
+        <v>E7106A/001</v>
       </c>
       <c r="C92" t="str">
         <v/>
       </c>
       <c r="D92" t="str">
-        <v>C6560KK</v>
+        <v>S6560KA</v>
       </c>
       <c r="E92" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>6546595</v>
+        <v>6546715</v>
       </c>
       <c r="B93" t="str">
-        <v>083Z01965</v>
+        <v>U692976F</v>
       </c>
       <c r="C93" t="str">
-        <v>3304</v>
+        <v/>
       </c>
       <c r="D93" t="str">
-        <v>C6560KK</v>
+        <v>S6560KA</v>
       </c>
       <c r="E93" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>6546598</v>
+        <v>6546718</v>
       </c>
       <c r="B94" t="str">
-        <v>GT400507</v>
+        <v>0M7G00636</v>
       </c>
       <c r="C94" t="str">
-        <v/>
+        <v>C7 MARC</v>
       </c>
       <c r="D94" t="str">
-        <v>V000739</v>
+        <v>V000481</v>
       </c>
       <c r="E94" t="str">
-        <v>DELAPORTE POINT LTD.</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>6546601</v>
+        <v>6546720</v>
       </c>
       <c r="B95" t="str">
-        <v>0GBY06863</v>
+        <v>3077214</v>
       </c>
       <c r="C95" t="str">
         <v/>
       </c>
       <c r="D95" t="str">
-        <v>S655070</v>
+        <v>S6560KA</v>
       </c>
       <c r="E95" t="str">
-        <v>COMMISSIONING CAT NEW EQ</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>6546603</v>
+        <v>6546723</v>
       </c>
       <c r="B96" t="str">
-        <v>0LEZ06521</v>
+        <v>0MHK00475</v>
       </c>
       <c r="C96" t="str">
-        <v>GEP50-7</v>
+        <v>D5G</v>
       </c>
       <c r="D96" t="str">
-        <v>V000934</v>
+        <v>V000119</v>
       </c>
       <c r="E96" t="str">
-        <v>MRS. FANNY OLDFIELD</v>
+        <v>BAHAMAS CONTRACTOR'S RENTAL</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>6546622</v>
+        <v>6546724</v>
       </c>
       <c r="B97" t="str">
-        <v>011600156</v>
+        <v>083Z01965</v>
       </c>
       <c r="C97" t="str">
-        <v/>
+        <v>3304</v>
       </c>
       <c r="D97" t="str">
-        <v>V002418</v>
+        <v>S6560KA</v>
       </c>
       <c r="E97" t="str">
-        <v>PHILIP POOL JR</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>6546624</v>
+        <v>6546725</v>
       </c>
       <c r="B98" t="str">
-        <v>0BNR00346</v>
+        <v>GT900678</v>
       </c>
       <c r="C98" t="str">
-        <v/>
+        <v>DE88E0</v>
       </c>
       <c r="D98" t="str">
-        <v>E655470</v>
+        <v>S6560KA</v>
       </c>
       <c r="E98" t="str">
-        <v>CAT RENTAL MAINTENANCE CAT</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>6546633</v>
+        <v>6546726</v>
       </c>
       <c r="B99" t="str">
-        <v>0FTH02783</v>
+        <v>U552916K</v>
       </c>
       <c r="C99" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D99" t="str">
-        <v>S6555KK</v>
+        <v>S6560KA</v>
       </c>
       <c r="E99" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>6546634</v>
+        <v>6546727</v>
       </c>
       <c r="B100" t="str">
-        <v>AT9006194</v>
+        <v>U629360Y</v>
       </c>
       <c r="C100" t="str">
-        <v>C5000</v>
+        <v/>
       </c>
       <c r="D100" t="str">
-        <v>V000481</v>
+        <v>S6560KA</v>
       </c>
       <c r="E100" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>6546636</v>
+        <v>6546728</v>
       </c>
       <c r="B101" t="str">
-        <v>AT35A01223</v>
+        <v>0CMD00629</v>
       </c>
       <c r="C101" t="str">
-        <v>GP25NM</v>
+        <v>3516</v>
       </c>
       <c r="D101" t="str">
         <v>C6560KK</v>
@@ -2099,30 +2099,30 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>6546640</v>
+        <v>6546729</v>
       </c>
       <c r="B102" t="str">
-        <v>FAFL001363</v>
+        <v>DGB080916</v>
       </c>
       <c r="C102" t="str">
-        <v>3304</v>
+        <v/>
       </c>
       <c r="D102" t="str">
-        <v>VG91640</v>
+        <v>S6560KA</v>
       </c>
       <c r="E102" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>6546641</v>
+        <v>6546730</v>
       </c>
       <c r="B103" t="str">
-        <v>004B15027</v>
+        <v>D3531A/001</v>
       </c>
       <c r="C103" t="str">
-        <v>3304</v>
+        <v/>
       </c>
       <c r="D103" t="str">
         <v>S6560KA</v>
@@ -2133,64 +2133,64 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>6546648</v>
+        <v>6546732</v>
       </c>
       <c r="B104" t="str">
-        <v>0C5H01736</v>
+        <v>0LEZ07101</v>
       </c>
       <c r="C104" t="str">
-        <v>C15</v>
+        <v>GEP50-7</v>
       </c>
       <c r="D104" t="str">
-        <v>V002588</v>
+        <v>S6560KA</v>
       </c>
       <c r="E104" t="str">
-        <v>SOUTH WEST PLAZA</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>6546650</v>
+        <v>6546747</v>
       </c>
       <c r="B105" t="str">
-        <v>MIS</v>
+        <v>066D40481</v>
       </c>
       <c r="C105" t="str">
-        <v/>
+        <v>3306</v>
       </c>
       <c r="D105" t="str">
-        <v>VG91640</v>
+        <v>S6560KA</v>
       </c>
       <c r="E105" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>6546651</v>
+        <v>6546748</v>
       </c>
       <c r="B106" t="str">
-        <v>0RNY02723</v>
+        <v>04RG00732</v>
       </c>
       <c r="C106" t="str">
-        <v>3516</v>
+        <v>3406</v>
       </c>
       <c r="D106" t="str">
-        <v>VG91640</v>
+        <v>VG92485</v>
       </c>
       <c r="E106" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>ROYAL BAHAMAS POLICE FORCE</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>6546660</v>
+        <v>6546751</v>
       </c>
       <c r="B107" t="str">
-        <v>011600468</v>
+        <v>GT900677</v>
       </c>
       <c r="C107" t="str">
-        <v/>
+        <v>DE88E0</v>
       </c>
       <c r="D107" t="str">
         <v>S6560KA</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>6546661</v>
+        <v>6546752</v>
       </c>
       <c r="B108" t="str">
-        <v>083Z01965</v>
+        <v>0RNS08438</v>
       </c>
       <c r="C108" t="str">
-        <v>3304</v>
+        <v>GEH220</v>
       </c>
       <c r="D108" t="str">
         <v>S6560KA</v>
@@ -2218,132 +2218,132 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>6546663</v>
+        <v>6546753</v>
       </c>
       <c r="B109" t="str">
-        <v>004B15027</v>
+        <v>0SCP05786</v>
       </c>
       <c r="C109" t="str">
-        <v>3304</v>
+        <v>252B2</v>
       </c>
       <c r="D109" t="str">
-        <v>S6560KA</v>
+        <v>V000481</v>
       </c>
       <c r="E109" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>6546665</v>
+        <v>6546759</v>
       </c>
       <c r="B110" t="str">
-        <v>44581453</v>
+        <v>24233289</v>
       </c>
       <c r="C110" t="str">
-        <v/>
+        <v>LTN6C</v>
       </c>
       <c r="D110" t="str">
-        <v>S6560KA</v>
+        <v>S655478</v>
       </c>
       <c r="E110" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>6546671</v>
+        <v>6546760</v>
       </c>
       <c r="B111" t="str">
-        <v>LN900439</v>
+        <v>EC901181</v>
       </c>
       <c r="C111" t="str">
-        <v>C9-300</v>
+        <v>DE88E0CA</v>
       </c>
       <c r="D111" t="str">
-        <v>S6560KA</v>
+        <v>V000826</v>
       </c>
       <c r="E111" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ENVIROSCAPE TWO THOUSAND LTD</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>6546673</v>
+        <v>6546764</v>
       </c>
       <c r="B112" t="str">
-        <v>0LYN00100</v>
+        <v>011706508</v>
       </c>
       <c r="C112" t="str">
-        <v/>
+        <v>GEP33-1</v>
       </c>
       <c r="D112" t="str">
-        <v>S6560KA</v>
+        <v>S655270</v>
       </c>
       <c r="E112" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>COMMISSIONING CAT USED EQ</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>6546682</v>
+        <v>6546765</v>
       </c>
       <c r="B113" t="str">
-        <v>0WYB00252</v>
+        <v>GB901458</v>
       </c>
       <c r="C113" t="str">
-        <v>C175-16</v>
+        <v>DE11E3</v>
       </c>
       <c r="D113" t="str">
-        <v>V001338</v>
+        <v>V001944</v>
       </c>
       <c r="E113" t="str">
-        <v>ST.GEORGE'S CAY POWER</v>
+        <v>NORTH ELEUTHERA ADMIN. OFFIC</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>6546684</v>
+        <v>6546766</v>
       </c>
       <c r="B114" t="str">
-        <v>0IGZ04228</v>
+        <v>37131897</v>
       </c>
       <c r="C114" t="str">
-        <v>3512B</v>
+        <v/>
       </c>
       <c r="D114" t="str">
-        <v>S655478</v>
+        <v>VG91661</v>
       </c>
       <c r="E114" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>MINISTRY OF HEALTH/PRINCESS</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>6546689</v>
+        <v>6546767</v>
       </c>
       <c r="B115" t="str">
-        <v>MIS</v>
+        <v>0C5H01391</v>
       </c>
       <c r="C115" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D115" t="str">
-        <v>VG92845</v>
+        <v>V000332</v>
       </c>
       <c r="E115" t="str">
-        <v>WATER &amp; SEWERAGE CORPORATION</v>
+        <v>BAYSIDE MARKETPLACE LTD.</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>6546694</v>
+        <v>6546768</v>
       </c>
       <c r="B116" t="str">
-        <v>0LEN03687</v>
+        <v>0LEZ04364</v>
       </c>
       <c r="C116" t="str">
-        <v>GEP110</v>
+        <v>GEP65-9</v>
       </c>
       <c r="D116" t="str">
         <v>S6560KA</v>
@@ -2354,115 +2354,115 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>6546698</v>
+        <v>6546769</v>
       </c>
       <c r="B117" t="str">
-        <v>081Z09972</v>
+        <v>U692976F</v>
       </c>
       <c r="C117" t="str">
-        <v>3412</v>
+        <v/>
       </c>
       <c r="D117" t="str">
-        <v>S6560KA</v>
+        <v>V000582</v>
       </c>
       <c r="E117" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CLIFTON PROPERTIES LTD.</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>6546699</v>
+        <v>6546770</v>
       </c>
       <c r="B118" t="str">
-        <v>011705782</v>
+        <v>030A04242</v>
       </c>
       <c r="C118" t="str">
-        <v/>
+        <v>3208</v>
       </c>
       <c r="D118" t="str">
-        <v>S6560KA</v>
+        <v>V000354</v>
       </c>
       <c r="E118" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>HAROLD HOFFER-RESIDENCE</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>6546708</v>
+        <v>6546771</v>
       </c>
       <c r="B119" t="str">
-        <v>0PJE00113</v>
+        <v>MIS</v>
       </c>
       <c r="C119" t="str">
-        <v>XQP150</v>
+        <v/>
       </c>
       <c r="D119" t="str">
-        <v>VG90740</v>
+        <v>V000302</v>
       </c>
       <c r="E119" t="str">
-        <v>DEPARTMENT OF AGRICULTURE</v>
+        <v>BURNS HOUSE LTD.</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>6546709</v>
+        <v>6546772</v>
       </c>
       <c r="B120" t="str">
-        <v>0B4H00377</v>
+        <v>081Z20131</v>
       </c>
       <c r="C120" t="str">
-        <v/>
+        <v>3412C</v>
       </c>
       <c r="D120" t="str">
-        <v>S6560KA</v>
+        <v>V000753</v>
       </c>
       <c r="E120" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>DISNEY CRUISE LINE</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>6546710</v>
+        <v>6546774</v>
       </c>
       <c r="B121" t="str">
-        <v>0E3S01965</v>
+        <v>0JLE05622</v>
       </c>
       <c r="C121" t="str">
-        <v/>
+        <v>C18</v>
       </c>
       <c r="D121" t="str">
-        <v>S6560KA</v>
+        <v>S6555KK</v>
       </c>
       <c r="E121" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY EXTERNAL</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>6546711</v>
+        <v>6546776</v>
       </c>
       <c r="B122" t="str">
-        <v>011800776</v>
+        <v>MIS</v>
       </c>
       <c r="C122" t="str">
-        <v/>
+        <v>C9</v>
       </c>
       <c r="D122" t="str">
-        <v>S6560KA</v>
+        <v>V001710</v>
       </c>
       <c r="E122" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>MORTON BAHAMAS LTD.</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>6546713</v>
+        <v>6546780</v>
       </c>
       <c r="B123" t="str">
-        <v>0B4D00949</v>
+        <v>0C9E01766</v>
       </c>
       <c r="C123" t="str">
-        <v/>
+        <v>C9</v>
       </c>
       <c r="D123" t="str">
         <v>S6560KA</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>6546714</v>
+        <v>6546781</v>
       </c>
       <c r="B124" t="str">
-        <v>E7106A/001</v>
+        <v>04RG01074</v>
       </c>
       <c r="C124" t="str">
-        <v/>
+        <v>3406</v>
       </c>
       <c r="D124" t="str">
         <v>S6560KA</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>6546715</v>
+        <v>6546782</v>
       </c>
       <c r="B125" t="str">
-        <v>U692976F</v>
+        <v>09ES02470</v>
       </c>
       <c r="C125" t="str">
-        <v/>
+        <v>3406C</v>
       </c>
       <c r="D125" t="str">
         <v>S6560KA</v>
@@ -2507,30 +2507,30 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>6546718</v>
+        <v>6546783</v>
       </c>
       <c r="B126" t="str">
-        <v>0M7G00636</v>
+        <v>0C9E01765</v>
       </c>
       <c r="C126" t="str">
-        <v>C7 MARC</v>
+        <v>C9</v>
       </c>
       <c r="D126" t="str">
-        <v>V000481</v>
+        <v>S6560KA</v>
       </c>
       <c r="E126" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>6546719</v>
+        <v>6546784</v>
       </c>
       <c r="B127" t="str">
-        <v>02WB04747</v>
+        <v>E6342D/002</v>
       </c>
       <c r="C127" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D127" t="str">
         <v>S6560KA</v>
@@ -2541,81 +2541,81 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>6546720</v>
+        <v>6546790</v>
       </c>
       <c r="B128" t="str">
-        <v>3077214</v>
+        <v>0B6T00671</v>
       </c>
       <c r="C128" t="str">
         <v/>
       </c>
       <c r="D128" t="str">
-        <v>S6560KA</v>
+        <v>VG90287</v>
       </c>
       <c r="E128" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>BAHAMIX</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>6546721</v>
+        <v>6546791</v>
       </c>
       <c r="B129" t="str">
-        <v>EC900237</v>
+        <v>0XPL00101</v>
       </c>
       <c r="C129" t="str">
-        <v/>
+        <v>C9 PKGG</v>
       </c>
       <c r="D129" t="str">
-        <v>S6560KA</v>
+        <v>VG91640</v>
       </c>
       <c r="E129" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>6546723</v>
+        <v>6546792</v>
       </c>
       <c r="B130" t="str">
-        <v>0MHK00475</v>
+        <v>0CMD00630</v>
       </c>
       <c r="C130" t="str">
-        <v>D5G</v>
+        <v>3516</v>
       </c>
       <c r="D130" t="str">
-        <v>V000119</v>
+        <v>E6560KK</v>
       </c>
       <c r="E130" t="str">
-        <v>BAHAMAS CONTRACTOR'S RENTAL</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>6546724</v>
+        <v>6546794</v>
       </c>
       <c r="B131" t="str">
-        <v>083Z01965</v>
+        <v>02WB12025</v>
       </c>
       <c r="C131" t="str">
-        <v>3304</v>
+        <v>3406</v>
       </c>
       <c r="D131" t="str">
-        <v>S6560KA</v>
+        <v>V002605</v>
       </c>
       <c r="E131" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>STUART COVE'S DIVE SOUTH</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>6546725</v>
+        <v>6546804</v>
       </c>
       <c r="B132" t="str">
-        <v>GT900678</v>
+        <v>0B4D00952</v>
       </c>
       <c r="C132" t="str">
-        <v>DE88E0</v>
+        <v/>
       </c>
       <c r="D132" t="str">
         <v>S6560KA</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>6546726</v>
+        <v>6546806</v>
       </c>
       <c r="B133" t="str">
-        <v>U552916K</v>
+        <v>029A01591</v>
       </c>
       <c r="C133" t="str">
-        <v/>
+        <v>3208</v>
       </c>
       <c r="D133" t="str">
         <v>S6560KA</v>
@@ -2643,47 +2643,47 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>6546727</v>
+        <v>6546808</v>
       </c>
       <c r="B134" t="str">
-        <v>U629360Y</v>
+        <v>0RTG01022</v>
       </c>
       <c r="C134" t="str">
         <v/>
       </c>
       <c r="D134" t="str">
-        <v>S6560KA</v>
+        <v>V000124</v>
       </c>
       <c r="E134" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>BAHAMAS BUSINESS SOLUTIONS</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>6546728</v>
+        <v>6546809</v>
       </c>
       <c r="B135" t="str">
-        <v>0CMD00629</v>
+        <v>0S1M07009</v>
       </c>
       <c r="C135" t="str">
-        <v>3516</v>
+        <v>C4.4</v>
       </c>
       <c r="D135" t="str">
-        <v>C6560KK</v>
+        <v>S6555KK</v>
       </c>
       <c r="E135" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>CAT WARRANTY EXTERNAL</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>6546729</v>
+        <v>6546814</v>
       </c>
       <c r="B136" t="str">
-        <v>DGB080916</v>
+        <v>0NCC00151</v>
       </c>
       <c r="C136" t="str">
-        <v/>
+        <v>GEP30</v>
       </c>
       <c r="D136" t="str">
         <v>S6560KA</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>6546730</v>
+        <v>6546815</v>
       </c>
       <c r="B137" t="str">
-        <v>D3531A/001</v>
+        <v>0B4D00948</v>
       </c>
       <c r="C137" t="str">
         <v/>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>6546732</v>
+        <v>6546817</v>
       </c>
       <c r="B138" t="str">
-        <v>0LEZ07101</v>
+        <v>0RNS01288</v>
       </c>
       <c r="C138" t="str">
-        <v>GEP50-7</v>
+        <v/>
       </c>
       <c r="D138" t="str">
         <v>S6560KA</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>6546733</v>
+        <v>6546818</v>
       </c>
       <c r="B139" t="str">
-        <v>0RNS04800</v>
+        <v>0LER00504</v>
       </c>
       <c r="C139" t="str">
-        <v/>
+        <v>GEP150-1</v>
       </c>
       <c r="D139" t="str">
         <v>S6560KA</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>6546734</v>
+        <v>6546821</v>
       </c>
       <c r="B140" t="str">
-        <v>09ES03212</v>
+        <v>NH301074</v>
       </c>
       <c r="C140" t="str">
-        <v>3406C</v>
+        <v>C13-400</v>
       </c>
       <c r="D140" t="str">
         <v>S6560KA</v>
@@ -2762,98 +2762,98 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>6546735</v>
+        <v>6546822</v>
       </c>
       <c r="B141" t="str">
-        <v>0SBG00450</v>
+        <v/>
       </c>
       <c r="C141" t="str">
-        <v>3512</v>
+        <v/>
       </c>
       <c r="D141" t="str">
-        <v>S6560KA</v>
+        <v>C6560KK</v>
       </c>
       <c r="E141" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>6546736</v>
+        <v>6546825</v>
       </c>
       <c r="B142" t="str">
-        <v>37131897</v>
+        <v>0B4D00159</v>
       </c>
       <c r="C142" t="str">
         <v/>
       </c>
       <c r="D142" t="str">
-        <v>S6560KA</v>
+        <v>V001044</v>
       </c>
       <c r="E142" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>GILGAN CO. LTD.</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>6546737</v>
+        <v>6546826</v>
       </c>
       <c r="B143" t="str">
-        <v>090U10187</v>
+        <v>0C5H01743</v>
       </c>
       <c r="C143" t="str">
-        <v>3406</v>
+        <v>C15</v>
       </c>
       <c r="D143" t="str">
-        <v>S6560KA</v>
+        <v>V000564</v>
       </c>
       <c r="E143" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CENTERVILLE HOUSE</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>6546738</v>
+        <v>6546827</v>
       </c>
       <c r="B144" t="str">
-        <v>0RNS05282</v>
+        <v>025Z02609</v>
       </c>
       <c r="C144" t="str">
-        <v>GEH220</v>
+        <v>3516</v>
       </c>
       <c r="D144" t="str">
-        <v>S6560KA</v>
+        <v>VG90190</v>
       </c>
       <c r="E144" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>B.E.C. FAMILY ISLAND</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>6546739</v>
+        <v>6546828</v>
       </c>
       <c r="B145" t="str">
-        <v>02WJ01749</v>
+        <v>0N1D00845</v>
       </c>
       <c r="C145" t="str">
-        <v>3412</v>
+        <v>C18 PKGG</v>
       </c>
       <c r="D145" t="str">
-        <v>S6560KA</v>
+        <v>V002420</v>
       </c>
       <c r="E145" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>PURITY BAKERY</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>6546740</v>
+        <v>6546830</v>
       </c>
       <c r="B146" t="str">
-        <v>09EP02766</v>
+        <v>0C5H01743</v>
       </c>
       <c r="C146" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D146" t="str">
         <v>S6560KA</v>
@@ -2864,30 +2864,30 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>6546741</v>
+        <v>6546834</v>
       </c>
       <c r="B147" t="str">
-        <v>0DWB03151</v>
+        <v>0T3T00337</v>
       </c>
       <c r="C147" t="str">
-        <v>C27</v>
+        <v>C32</v>
       </c>
       <c r="D147" t="str">
-        <v>S6560KA</v>
+        <v>S6555KK</v>
       </c>
       <c r="E147" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY EXTERNAL</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>6546742</v>
+        <v>6546837</v>
       </c>
       <c r="B148" t="str">
-        <v>0DWB03152</v>
+        <v>081Z03150</v>
       </c>
       <c r="C148" t="str">
-        <v>C27</v>
+        <v>3412</v>
       </c>
       <c r="D148" t="str">
         <v>S6560KA</v>
@@ -2898,47 +2898,47 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>6546747</v>
+        <v>6546841</v>
       </c>
       <c r="B149" t="str">
-        <v>066D40481</v>
+        <v>0ZAD00359</v>
       </c>
       <c r="C149" t="str">
-        <v>3306</v>
+        <v>3508</v>
       </c>
       <c r="D149" t="str">
-        <v>S6560KA</v>
+        <v>V002305</v>
       </c>
       <c r="E149" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>PERFECT LUCK ASSETS LTD.</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>6546748</v>
+        <v>6546844</v>
       </c>
       <c r="B150" t="str">
-        <v>04RG00732</v>
+        <v>0BPD00352</v>
       </c>
       <c r="C150" t="str">
-        <v>3406</v>
+        <v>XQ2000</v>
       </c>
       <c r="D150" t="str">
-        <v>VG92485</v>
+        <v>S655478</v>
       </c>
       <c r="E150" t="str">
-        <v>ROYAL BAHAMAS POLICE FORCE</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>6546751</v>
+        <v>6546846</v>
       </c>
       <c r="B151" t="str">
-        <v>GT900677</v>
+        <v>EAD0A202091</v>
       </c>
       <c r="C151" t="str">
-        <v>DE88E0</v>
+        <v/>
       </c>
       <c r="D151" t="str">
         <v>S6560KA</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>6546752</v>
+        <v>6546849</v>
       </c>
       <c r="B152" t="str">
-        <v>0RNS08438</v>
+        <v>0MMG04473</v>
       </c>
       <c r="C152" t="str">
-        <v>GEH220</v>
+        <v>GEP18-6SA</v>
       </c>
       <c r="D152" t="str">
         <v>S6560KA</v>
@@ -2966,200 +2966,200 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>6546753</v>
+        <v>6546853</v>
       </c>
       <c r="B153" t="str">
-        <v>0SCP05786</v>
+        <v>030A02767</v>
       </c>
       <c r="C153" t="str">
-        <v>252B2</v>
+        <v>3208</v>
       </c>
       <c r="D153" t="str">
-        <v>V000481</v>
+        <v>S6560KA</v>
       </c>
       <c r="E153" t="str">
-        <v>CASH SALE SERVICE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>6546754</v>
+        <v>6546855</v>
       </c>
       <c r="B154" t="str">
-        <v>0PJE00113</v>
+        <v>0B4D00952</v>
       </c>
       <c r="C154" t="str">
-        <v>XQP150</v>
+        <v/>
       </c>
       <c r="D154" t="str">
-        <v>VG90740</v>
+        <v>S6560KA</v>
       </c>
       <c r="E154" t="str">
-        <v>DEPARTMENT OF AGRICULTURE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>6546755</v>
+        <v>6546861</v>
       </c>
       <c r="B155" t="str">
-        <v>200130722</v>
+        <v>011800776</v>
       </c>
       <c r="C155" t="str">
-        <v>3394RT</v>
+        <v/>
       </c>
       <c r="D155" t="str">
-        <v>S655478</v>
+        <v>S6560KA</v>
       </c>
       <c r="E155" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>6546756</v>
+        <v>6546864</v>
       </c>
       <c r="B156" t="str">
-        <v>AT14F00527</v>
+        <v>0C2Y01472</v>
       </c>
       <c r="C156" t="str">
-        <v>DP30NT</v>
+        <v>3406</v>
       </c>
       <c r="D156" t="str">
-        <v>S655478</v>
+        <v>S6560KA</v>
       </c>
       <c r="E156" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>6546758</v>
+        <v>6546865</v>
       </c>
       <c r="B157" t="str">
-        <v>300079644</v>
+        <v>A4EC110226</v>
       </c>
       <c r="C157" t="str">
-        <v>600S</v>
+        <v/>
       </c>
       <c r="D157" t="str">
-        <v>S655478</v>
+        <v>V001308</v>
       </c>
       <c r="E157" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>JOHN WATLING'S DISTILLERY LT</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>6546759</v>
+        <v>6546866</v>
       </c>
       <c r="B158" t="str">
-        <v>24233289</v>
+        <v>ATS511012</v>
       </c>
       <c r="C158" t="str">
-        <v>LTN6C</v>
+        <v>P5000</v>
       </c>
       <c r="D158" t="str">
-        <v>S655478</v>
+        <v>VG90186</v>
       </c>
       <c r="E158" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BAHAMAS CUSTOMS DEPT.</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>6546760</v>
+        <v>6546869</v>
       </c>
       <c r="B159" t="str">
-        <v>EC901181</v>
+        <v>CMK00677</v>
       </c>
       <c r="C159" t="str">
-        <v>DE88E0CA</v>
+        <v/>
       </c>
       <c r="D159" t="str">
-        <v>V000826</v>
+        <v>S6560KA</v>
       </c>
       <c r="E159" t="str">
-        <v>ENVIROSCAPE TWO THOUSAND LTD</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>6546764</v>
+        <v>6546870</v>
       </c>
       <c r="B160" t="str">
-        <v>011706508</v>
+        <v>0PXM07093</v>
       </c>
       <c r="C160" t="str">
-        <v>GEP33-1</v>
+        <v/>
       </c>
       <c r="D160" t="str">
-        <v>S655270</v>
+        <v>S6560KA</v>
       </c>
       <c r="E160" t="str">
-        <v>COMMISSIONING CAT USED EQ</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>6546765</v>
+        <v>6546875</v>
       </c>
       <c r="B161" t="str">
-        <v>GB901458</v>
+        <v>0BPD00714</v>
       </c>
       <c r="C161" t="str">
-        <v>DE11E3</v>
+        <v>XQ2000</v>
       </c>
       <c r="D161" t="str">
-        <v>V001944</v>
+        <v>S655478</v>
       </c>
       <c r="E161" t="str">
-        <v>NORTH ELEUTHERA ADMIN. OFFIC</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>6546766</v>
+        <v>6546876</v>
       </c>
       <c r="B162" t="str">
-        <v>37131897</v>
+        <v>0RNS02796</v>
       </c>
       <c r="C162" t="str">
         <v/>
       </c>
       <c r="D162" t="str">
-        <v>VG91661</v>
+        <v>V000309</v>
       </c>
       <c r="E162" t="str">
-        <v>MINISTRY OF HEALTH/PRINCESS</v>
+        <v>MASTER TECHNICIANS LTD.</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>6546767</v>
+        <v>6546877</v>
       </c>
       <c r="B163" t="str">
-        <v>0C5H01391</v>
+        <v>0RPF06987</v>
       </c>
       <c r="C163" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D163" t="str">
-        <v>V000332</v>
+        <v>V002654</v>
       </c>
       <c r="E163" t="str">
-        <v>BAYSIDE MARKETPLACE LTD.</v>
+        <v>FRANK CROTHERS</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>6546768</v>
+        <v>6546878</v>
       </c>
       <c r="B164" t="str">
-        <v>0LEZ04364</v>
+        <v>09EP00242</v>
       </c>
       <c r="C164" t="str">
-        <v>GEP65-9</v>
+        <v>3412</v>
       </c>
       <c r="D164" t="str">
         <v>S6560KA</v>
@@ -3170,217 +3170,217 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>6546769</v>
+        <v>6546880</v>
       </c>
       <c r="B165" t="str">
-        <v>U692976F</v>
+        <v>0JEZ00277</v>
       </c>
       <c r="C165" t="str">
-        <v/>
+        <v>C7.1</v>
       </c>
       <c r="D165" t="str">
-        <v>V000582</v>
+        <v>VG91640</v>
       </c>
       <c r="E165" t="str">
-        <v>CLIFTON PROPERTIES LTD.</v>
+        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>6546770</v>
+        <v>6546882</v>
       </c>
       <c r="B166" t="str">
-        <v>030A04242</v>
+        <v>0RNC02183</v>
       </c>
       <c r="C166" t="str">
-        <v>3208</v>
+        <v>C32</v>
       </c>
       <c r="D166" t="str">
-        <v>V000354</v>
+        <v>V000481</v>
       </c>
       <c r="E166" t="str">
-        <v>HAROLD HOFFER-RESIDENCE</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>6546771</v>
+        <v>6546883</v>
       </c>
       <c r="B167" t="str">
-        <v>MIS</v>
+        <v>004B15027</v>
       </c>
       <c r="C167" t="str">
-        <v/>
+        <v>3304</v>
       </c>
       <c r="D167" t="str">
-        <v>V000302</v>
+        <v>C655292</v>
       </c>
       <c r="E167" t="str">
-        <v>BURNS HOUSE LTD.</v>
+        <v>COMMISSIONING NON CAT NEW</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>6546772</v>
+        <v>6546884</v>
       </c>
       <c r="B168" t="str">
-        <v>081Z20131</v>
+        <v>0RPF01043</v>
       </c>
       <c r="C168" t="str">
-        <v>3412C</v>
+        <v/>
       </c>
       <c r="D168" t="str">
-        <v>V000753</v>
+        <v>S6560KA</v>
       </c>
       <c r="E168" t="str">
-        <v>DISNEY CRUISE LINE</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>6546774</v>
+        <v>6546885</v>
       </c>
       <c r="B169" t="str">
-        <v>0JLE05622</v>
+        <v>MIS</v>
       </c>
       <c r="C169" t="str">
-        <v>C18</v>
+        <v/>
       </c>
       <c r="D169" t="str">
-        <v>S6555KK</v>
+        <v>C6560KK</v>
       </c>
       <c r="E169" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>6546775</v>
+        <v>6546886</v>
       </c>
       <c r="B170" t="str">
-        <v>0JLE05624</v>
+        <v>0LBS01257</v>
       </c>
       <c r="C170" t="str">
-        <v>C18</v>
+        <v>420F2</v>
       </c>
       <c r="D170" t="str">
-        <v>S6555KK</v>
+        <v>S655478</v>
       </c>
       <c r="E170" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>6546776</v>
+        <v>6546887</v>
       </c>
       <c r="B171" t="str">
-        <v>MIS</v>
+        <v>0NNM00663</v>
       </c>
       <c r="C171" t="str">
-        <v>C9</v>
+        <v/>
       </c>
       <c r="D171" t="str">
-        <v>V001710</v>
+        <v>S6560KA</v>
       </c>
       <c r="E171" t="str">
-        <v>MORTON BAHAMAS LTD.</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>6546777</v>
+        <v>6546888</v>
       </c>
       <c r="B172" t="str">
-        <v>0B4S01967</v>
+        <v>0LEZ04263</v>
       </c>
       <c r="C172" t="str">
-        <v>GEP88-1</v>
+        <v>GEP 65-7</v>
       </c>
       <c r="D172" t="str">
-        <v>S6560KA</v>
+        <v>V000095</v>
       </c>
       <c r="E172" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ALBANY CONDOMINIUM DEVELOPER</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>6546778</v>
+        <v>6546889</v>
       </c>
       <c r="B173" t="str">
-        <v>T3300181</v>
+        <v>CN600289</v>
       </c>
       <c r="C173" t="str">
-        <v>C15-500</v>
+        <v/>
       </c>
       <c r="D173" t="str">
-        <v>S6560KA</v>
+        <v>S655070</v>
       </c>
       <c r="E173" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>COMMISSIONING CAT NEW EQ</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>6546780</v>
+        <v>6546890</v>
       </c>
       <c r="B174" t="str">
-        <v>0C9E01766</v>
+        <v>0DWB02068</v>
       </c>
       <c r="C174" t="str">
-        <v>C9</v>
+        <v>C27</v>
       </c>
       <c r="D174" t="str">
-        <v>S6560KA</v>
+        <v>VG91662</v>
       </c>
       <c r="E174" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>MIN.OF HEALTH/SANDILAND</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>6546781</v>
+        <v>6546891</v>
       </c>
       <c r="B175" t="str">
-        <v>04RG01074</v>
+        <v>RNCO2183</v>
       </c>
       <c r="C175" t="str">
-        <v>3406</v>
+        <v>C32</v>
       </c>
       <c r="D175" t="str">
-        <v>S6560KA</v>
+        <v>V000481</v>
       </c>
       <c r="E175" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CASH SALE SERVICE</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>6546782</v>
+        <v>6546892</v>
       </c>
       <c r="B176" t="str">
-        <v>09ES02470</v>
+        <v>0RNS01288</v>
       </c>
       <c r="C176" t="str">
-        <v>3406C</v>
+        <v/>
       </c>
       <c r="D176" t="str">
-        <v>S6560KA</v>
+        <v>V002483</v>
       </c>
       <c r="E176" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ROYAL BANK OF CANADA</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>6546783</v>
+        <v>6546893</v>
       </c>
       <c r="B177" t="str">
-        <v>0C9E01765</v>
+        <v>0RPT04640</v>
       </c>
       <c r="C177" t="str">
-        <v>C9</v>
+        <v/>
       </c>
       <c r="D177" t="str">
         <v>S6560KA</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>6546784</v>
+        <v>6546894</v>
       </c>
       <c r="B178" t="str">
-        <v>E6342D/002</v>
+        <v>0RPT04640</v>
       </c>
       <c r="C178" t="str">
         <v/>
@@ -3408,1053 +3408,1053 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>6546785</v>
+        <v>6546895</v>
       </c>
       <c r="B179" t="str">
-        <v>09EP00242</v>
+        <v>KRPF05979</v>
       </c>
       <c r="C179" t="str">
-        <v>3412</v>
+        <v/>
       </c>
       <c r="D179" t="str">
-        <v>S6560KA</v>
+        <v>C6560KK</v>
       </c>
       <c r="E179" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>6546786</v>
+        <v>6546896</v>
       </c>
       <c r="B180" t="str">
-        <v>0B4D03109</v>
+        <v>0B4S00154</v>
       </c>
       <c r="C180" t="str">
-        <v>GEP 65-7</v>
+        <v/>
       </c>
       <c r="D180" t="str">
-        <v>S6560KA</v>
+        <v>V001504</v>
       </c>
       <c r="E180" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>LYFORD CAY SECURITY</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>6546787</v>
+        <v>6546897</v>
       </c>
       <c r="B181" t="str">
-        <v>04ZR02432</v>
+        <v>08NS05978</v>
       </c>
       <c r="C181" t="str">
-        <v>3406</v>
+        <v>3306B</v>
       </c>
       <c r="D181" t="str">
-        <v>VG91658</v>
+        <v>S6560KA</v>
       </c>
       <c r="E181" t="str">
-        <v>POST OFFICE DEPARTMENT</v>
+        <v>INTERNAL CHARGES CSA SHOP</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>6546790</v>
+        <v>6600795</v>
       </c>
       <c r="B182" t="str">
-        <v>0B6T00671</v>
+        <v>0CMD00628</v>
       </c>
       <c r="C182" t="str">
-        <v/>
+        <v>3516</v>
       </c>
       <c r="D182" t="str">
-        <v>VG90287</v>
+        <v>VG90190</v>
       </c>
       <c r="E182" t="str">
-        <v>BAHAMIX</v>
+        <v>B.E.C. FAMILY ISLAND</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>6546791</v>
+        <v>6600812</v>
       </c>
       <c r="B183" t="str">
-        <v>0XPL00101</v>
+        <v>067U17551</v>
       </c>
       <c r="C183" t="str">
-        <v>C9 PKGG</v>
+        <v>3408C</v>
       </c>
       <c r="D183" t="str">
-        <v>VG91640</v>
+        <v>V002796</v>
       </c>
       <c r="E183" t="str">
-        <v>ROYAL BAHAMAS DEFENCE FORCE</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>6546792</v>
+        <v>6600819</v>
       </c>
       <c r="B184" t="str">
-        <v>0CMD00630</v>
+        <v>0NAM00275</v>
       </c>
       <c r="C184" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D184" t="str">
-        <v>E6560KK</v>
+        <v>V000484</v>
       </c>
       <c r="E184" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>CARIBBEAN UTILITIES CO. LTD.</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>6546794</v>
+        <v>6600820</v>
       </c>
       <c r="B185" t="str">
-        <v>02WB12025</v>
+        <v>0NAM00201</v>
       </c>
       <c r="C185" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D185" t="str">
-        <v>V002605</v>
+        <v>V000484</v>
       </c>
       <c r="E185" t="str">
-        <v>STUART COVE'S DIVE SOUTH</v>
+        <v>CARIBBEAN UTILITIES CO. LTD.</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>6546798</v>
+        <v>6600830</v>
       </c>
       <c r="B186" t="str">
-        <v>0MPN00320</v>
+        <v>067U17551</v>
       </c>
       <c r="C186" t="str">
-        <v/>
+        <v>3408C</v>
       </c>
       <c r="D186" t="str">
-        <v>S6560KA</v>
+        <v>V002796</v>
       </c>
       <c r="E186" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>6546800</v>
+        <v>6600832</v>
       </c>
       <c r="B187" t="str">
-        <v>0N1D00852</v>
+        <v>68Z</v>
       </c>
       <c r="C187" t="str">
-        <v>C18</v>
+        <v/>
       </c>
       <c r="D187" t="str">
-        <v>V001710</v>
+        <v>V002796</v>
       </c>
       <c r="E187" t="str">
-        <v>MORTON BAHAMAS LTD.</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>6546802</v>
+        <v>6600867</v>
       </c>
       <c r="B188" t="str">
-        <v>0C9E02537</v>
+        <v>068Z01389</v>
       </c>
       <c r="C188" t="str">
-        <v>C9</v>
+        <v>3508</v>
       </c>
       <c r="D188" t="str">
-        <v>S6560KA</v>
+        <v>V002796</v>
       </c>
       <c r="E188" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>6546803</v>
+        <v>6600875</v>
       </c>
       <c r="B189" t="str">
-        <v>0C2Y01472</v>
+        <v>0CMD00630</v>
       </c>
       <c r="C189" t="str">
-        <v>3406</v>
+        <v>3516</v>
       </c>
       <c r="D189" t="str">
-        <v>S6560KA</v>
+        <v>VG90190</v>
       </c>
       <c r="E189" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>B.E.C. FAMILY ISLAND</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>6546804</v>
+        <v>6600876</v>
       </c>
       <c r="B190" t="str">
-        <v>0B4D00952</v>
+        <v>0JSJ03342</v>
       </c>
       <c r="C190" t="str">
-        <v/>
+        <v>C32</v>
       </c>
       <c r="D190" t="str">
-        <v>S6560KA</v>
+        <v>S665070</v>
       </c>
       <c r="E190" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>COMMISSIONING CAT NEW EQ</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>6546805</v>
+        <v>6600895</v>
       </c>
       <c r="B191" t="str">
-        <v>09ES02381</v>
+        <v/>
       </c>
       <c r="C191" t="str">
-        <v>3406C</v>
+        <v/>
       </c>
       <c r="D191" t="str">
-        <v>S6560KA</v>
+        <v>V000484</v>
       </c>
       <c r="E191" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CARIBBEAN UTILITIES CO. LTD.</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>6546806</v>
+        <v>6600901</v>
       </c>
       <c r="B192" t="str">
-        <v>029A01591</v>
+        <v>01PD00368</v>
       </c>
       <c r="C192" t="str">
-        <v>3208</v>
+        <v>3616</v>
       </c>
       <c r="D192" t="str">
-        <v>S6560KA</v>
+        <v>VG90029</v>
       </c>
       <c r="E192" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>B.E.C. ABACO</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>6546808</v>
+        <v>6600902</v>
       </c>
       <c r="B193" t="str">
-        <v>0RTG01022</v>
+        <v>0WYB00252</v>
       </c>
       <c r="C193" t="str">
-        <v/>
+        <v>C175-16</v>
       </c>
       <c r="D193" t="str">
-        <v>V000124</v>
+        <v>V001333</v>
       </c>
       <c r="E193" t="str">
-        <v>BAHAMAS BUSINESS SOLUTIONS</v>
+        <v>ST.GEORGE'S CAY POWER -D/S</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>6546809</v>
+        <v>6600907</v>
       </c>
       <c r="B194" t="str">
-        <v>0S1M07009</v>
+        <v>067U21515</v>
       </c>
       <c r="C194" t="str">
-        <v>C4.4</v>
+        <v>3408B</v>
       </c>
       <c r="D194" t="str">
-        <v>S6555KK</v>
+        <v>V002796</v>
       </c>
       <c r="E194" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>6546810</v>
+        <v>6600908</v>
       </c>
       <c r="B195" t="str">
-        <v>0C5H01717</v>
+        <v>067U21515</v>
       </c>
       <c r="C195" t="str">
-        <v>C15</v>
+        <v>3408B</v>
       </c>
       <c r="D195" t="str">
-        <v>S6560KA</v>
+        <v>V002796</v>
       </c>
       <c r="E195" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>6546813</v>
+        <v>6600910</v>
       </c>
       <c r="B196" t="str">
-        <v>44613526</v>
+        <v>67U</v>
       </c>
       <c r="C196" t="str">
         <v/>
       </c>
       <c r="D196" t="str">
-        <v>S6560KA</v>
+        <v>V002796</v>
       </c>
       <c r="E196" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>6546814</v>
+        <v>6600912</v>
       </c>
       <c r="B197" t="str">
-        <v>0NCC00151</v>
+        <v>0WYB00660</v>
       </c>
       <c r="C197" t="str">
-        <v>GEP30</v>
+        <v>C175-16</v>
       </c>
       <c r="D197" t="str">
-        <v>S6560KA</v>
+        <v>V001333</v>
       </c>
       <c r="E197" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ST.GEORGE'S CAY POWER -D/S</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>6546815</v>
+        <v>6600916</v>
       </c>
       <c r="B198" t="str">
-        <v>0B4D00948</v>
+        <v>67U017151</v>
       </c>
       <c r="C198" t="str">
         <v/>
       </c>
       <c r="D198" t="str">
-        <v>S6560KA</v>
+        <v>V002796</v>
       </c>
       <c r="E198" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER -D/S</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>6546816</v>
+        <v>6600917</v>
       </c>
       <c r="B199" t="str">
-        <v>011800152</v>
+        <v/>
       </c>
       <c r="C199" t="str">
         <v/>
       </c>
       <c r="D199" t="str">
-        <v>S6560KA</v>
+        <v>V002795</v>
       </c>
       <c r="E199" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CONSOLIDATED WATER(BAH)LTD.</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>6546817</v>
+        <v>6600919</v>
       </c>
       <c r="B200" t="str">
-        <v>0RNS01288</v>
+        <v>0WYB00660</v>
       </c>
       <c r="C200" t="str">
-        <v/>
+        <v>C175-16</v>
       </c>
       <c r="D200" t="str">
-        <v>S6560KA</v>
+        <v>V001333</v>
       </c>
       <c r="E200" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ST.GEORGE'S CAY POWER -D/S</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>6546818</v>
+        <v>6600920</v>
       </c>
       <c r="B201" t="str">
-        <v>0LER00504</v>
+        <v>025Z02609</v>
       </c>
       <c r="C201" t="str">
-        <v>GEP150-1</v>
+        <v>3516</v>
       </c>
       <c r="D201" t="str">
-        <v>S6560KA</v>
+        <v>VG90190</v>
       </c>
       <c r="E201" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>B.E.C. FAMILY ISLAND</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>6546819</v>
+        <v>6600921</v>
       </c>
       <c r="B202" t="str">
-        <v>0IGZ04228</v>
+        <v>0PRH07067</v>
       </c>
       <c r="C202" t="str">
-        <v>3512B</v>
+        <v/>
       </c>
       <c r="D202" t="str">
-        <v>S655478</v>
+        <v>V004124</v>
       </c>
       <c r="E202" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>FORTIS TCI LIMITED</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>6546821</v>
+        <v>6600922</v>
       </c>
       <c r="B203" t="str">
-        <v>NH301074</v>
+        <v>0NAM00275</v>
       </c>
       <c r="C203" t="str">
-        <v>C13-400</v>
+        <v/>
       </c>
       <c r="D203" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E203" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>6546822</v>
+        <v>67B1806</v>
       </c>
       <c r="B204" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C204" t="str">
-        <v/>
+        <v>CRANE</v>
       </c>
       <c r="D204" t="str">
-        <v>C6560KK</v>
+        <v>S67PART</v>
       </c>
       <c r="E204" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>INTERNAL PARTS CONSUMPTION</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>6546825</v>
+        <v>67C1806</v>
       </c>
       <c r="B205" t="str">
-        <v>0B4D00159</v>
+        <v/>
       </c>
       <c r="C205" t="str">
         <v/>
       </c>
       <c r="D205" t="str">
-        <v>V001044</v>
+        <v>S67CONS</v>
       </c>
       <c r="E205" t="str">
-        <v>GILGAN CO. LTD.</v>
+        <v>SHOP CONSUMABLES MONTHLY WO</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>6546826</v>
+        <v>67F1806</v>
       </c>
       <c r="B206" t="str">
-        <v>0C5H01743</v>
+        <v>WOBS</v>
       </c>
       <c r="C206" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D206" t="str">
-        <v>V000564</v>
+        <v>S67FIAS</v>
       </c>
       <c r="E206" t="str">
-        <v>CENTERVILLE HOUSE</v>
+        <v>FIXED ASSETS MONTHLY WO</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>6546827</v>
+        <v>67M1806</v>
       </c>
       <c r="B207" t="str">
-        <v>025Z02609</v>
+        <v/>
       </c>
       <c r="C207" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D207" t="str">
-        <v>VG90190</v>
+        <v>S67MONT</v>
       </c>
       <c r="E207" t="str">
-        <v>B.E.C. FAMILY ISLAND</v>
+        <v>GENERAL SHOP MONTHLY WO</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>6546828</v>
+        <v>67P1806</v>
       </c>
       <c r="B208" t="str">
-        <v>0N1D00845</v>
+        <v>WOBS</v>
       </c>
       <c r="C208" t="str">
-        <v>C18 PKGG</v>
+        <v/>
       </c>
       <c r="D208" t="str">
-        <v>V002420</v>
+        <v>S67PART</v>
       </c>
       <c r="E208" t="str">
-        <v>PURITY BAKERY</v>
+        <v>INTERNAL PARTS CONSUMPTION</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>6546829</v>
+        <v>67R1806</v>
       </c>
       <c r="B209" t="str">
-        <v>0N1D00845</v>
+        <v/>
       </c>
       <c r="C209" t="str">
-        <v>C18 PKGG</v>
+        <v/>
       </c>
       <c r="D209" t="str">
-        <v>S6560KA</v>
+        <v>S6760ED</v>
       </c>
       <c r="E209" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES ENGINE AND</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>6546830</v>
+        <v>67T1806</v>
       </c>
       <c r="B210" t="str">
-        <v>0C5H01743</v>
+        <v>WOBS</v>
       </c>
       <c r="C210" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D210" t="str">
-        <v>S6560KA</v>
+        <v>S67TOOL</v>
       </c>
       <c r="E210" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>TOOLS MONTHLY WORK ORDER</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>6546834</v>
+        <v>6716854</v>
       </c>
       <c r="B211" t="str">
-        <v>0T3T00337</v>
+        <v>0GBY05161</v>
       </c>
       <c r="C211" t="str">
-        <v>C32</v>
+        <v>DE16E3</v>
       </c>
       <c r="D211" t="str">
-        <v>S6555KK</v>
+        <v>E6755KK</v>
       </c>
       <c r="E211" t="str">
-        <v>CAT WARRANTY EXTERNAL</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>6546835</v>
+        <v>6716857</v>
       </c>
       <c r="B212" t="str">
-        <v>0B4D02457</v>
+        <v>4K608717</v>
       </c>
       <c r="C212" t="str">
-        <v>GEP65-7 BR</v>
+        <v/>
       </c>
       <c r="D212" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E212" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>6546836</v>
+        <v>6716887</v>
       </c>
       <c r="B213" t="str">
-        <v>N1D00852</v>
+        <v>200193650</v>
       </c>
       <c r="C213" t="str">
         <v/>
       </c>
       <c r="D213" t="str">
-        <v>S6560KA</v>
+        <v>V007714</v>
       </c>
       <c r="E213" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>6546837</v>
+        <v>6716888</v>
       </c>
       <c r="B214" t="str">
-        <v>081Z03150</v>
+        <v>AT17C00628</v>
       </c>
       <c r="C214" t="str">
-        <v>3412</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D214" t="str">
-        <v>S6560KA</v>
+        <v>V007714</v>
       </c>
       <c r="E214" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>6546840</v>
+        <v>6716889</v>
       </c>
       <c r="B215" t="str">
-        <v>09ES03214</v>
+        <v>AT17C00628</v>
       </c>
       <c r="C215" t="str">
-        <v>3406</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D215" t="str">
-        <v>S6560KA</v>
+        <v>V007714</v>
       </c>
       <c r="E215" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>6546841</v>
+        <v>6716890</v>
       </c>
       <c r="B216" t="str">
-        <v>0ZAD00359</v>
+        <v>AT3521123</v>
       </c>
       <c r="C216" t="str">
-        <v>3508</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D216" t="str">
-        <v>V002305</v>
+        <v>V007714</v>
       </c>
       <c r="E216" t="str">
-        <v>PERFECT LUCK ASSETS LTD.</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>6546842</v>
+        <v>6716891</v>
       </c>
       <c r="B217" t="str">
-        <v>011706508</v>
+        <v>AT3521123</v>
       </c>
       <c r="C217" t="str">
-        <v>GEP33-1</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D217" t="str">
-        <v>S6560KA</v>
+        <v>V007714</v>
       </c>
       <c r="E217" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>6546844</v>
+        <v>6716892</v>
       </c>
       <c r="B218" t="str">
-        <v>0BPD00352</v>
+        <v>AT19CR0375</v>
       </c>
       <c r="C218" t="str">
-        <v>XQ2000</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D218" t="str">
-        <v>S655478</v>
+        <v>V007714</v>
       </c>
       <c r="E218" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>6546845</v>
+        <v>6716893</v>
       </c>
       <c r="B219" t="str">
-        <v>0LEZ05810</v>
+        <v>AT19CR0375</v>
       </c>
       <c r="C219" t="str">
-        <v>GEP65-9</v>
+        <v>ACCESORIES</v>
       </c>
       <c r="D219" t="str">
-        <v>S6560KA</v>
+        <v>V007714</v>
       </c>
       <c r="E219" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>6546846</v>
+        <v>6716908</v>
       </c>
       <c r="B220" t="str">
-        <v>EAD0A202091</v>
+        <v>09RC00567</v>
       </c>
       <c r="C220" t="str">
-        <v/>
+        <v>3612</v>
       </c>
       <c r="D220" t="str">
-        <v>S6560KA</v>
+        <v>V007110</v>
       </c>
       <c r="E220" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>6546847</v>
+        <v>6716918</v>
       </c>
       <c r="B221" t="str">
-        <v>0NNM00663</v>
+        <v>071Z00389</v>
       </c>
       <c r="C221" t="str">
-        <v/>
+        <v>3516</v>
       </c>
       <c r="D221" t="str">
-        <v>S6560KA</v>
+        <v>V007110</v>
       </c>
       <c r="E221" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>6546849</v>
+        <v>6716924</v>
       </c>
       <c r="B222" t="str">
-        <v>0MMG04473</v>
+        <v>024233287</v>
       </c>
       <c r="C222" t="str">
-        <v>GEP18-6SA</v>
+        <v/>
       </c>
       <c r="D222" t="str">
-        <v>S6560KA</v>
+        <v>V007834</v>
       </c>
       <c r="E222" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>6546850</v>
+        <v>6716929</v>
       </c>
       <c r="B223" t="str">
-        <v>T04045T721186</v>
+        <v>AT14F00521</v>
       </c>
       <c r="C223" t="str">
-        <v/>
+        <v>DP30NT</v>
       </c>
       <c r="D223" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E223" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>6546851</v>
+        <v>6716932</v>
       </c>
       <c r="B224" t="str">
-        <v>3A0091074</v>
+        <v>AT39A00072</v>
       </c>
       <c r="C224" t="str">
-        <v/>
+        <v>DP160</v>
       </c>
       <c r="D224" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E224" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>6546852</v>
+        <v>6716954</v>
       </c>
       <c r="B225" t="str">
-        <v>CR5PS00322</v>
+        <v>AT14F00527</v>
       </c>
       <c r="C225" t="str">
-        <v/>
+        <v>DP30NT</v>
       </c>
       <c r="D225" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E225" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>6546853</v>
+        <v>6716956</v>
       </c>
       <c r="B226" t="str">
-        <v>030A02767</v>
+        <v>AT15E20089</v>
       </c>
       <c r="C226" t="str">
-        <v>3208</v>
+        <v/>
       </c>
       <c r="D226" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E226" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>6546854</v>
+        <v>6716992</v>
       </c>
       <c r="B227" t="str">
-        <v>030A03226</v>
+        <v>AT14F00527</v>
       </c>
       <c r="C227" t="str">
-        <v>3208</v>
+        <v>DP30NT</v>
       </c>
       <c r="D227" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E227" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>6546855</v>
+        <v>6716995</v>
       </c>
       <c r="B228" t="str">
-        <v>0B4D00952</v>
+        <v>0MLD00169</v>
       </c>
       <c r="C228" t="str">
-        <v/>
+        <v>TL943D</v>
       </c>
       <c r="D228" t="str">
-        <v>S6560KA</v>
+        <v>V007834</v>
       </c>
       <c r="E228" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>6546857</v>
+        <v>6716996</v>
       </c>
       <c r="B229" t="str">
-        <v>0C5H01163</v>
+        <v>AT14F00527</v>
       </c>
       <c r="C229" t="str">
-        <v>C15</v>
+        <v>DP30NT</v>
       </c>
       <c r="D229" t="str">
-        <v>S6560KA</v>
+        <v>V007834</v>
       </c>
       <c r="E229" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>6546858</v>
+        <v>6716997</v>
       </c>
       <c r="B230" t="str">
-        <v>0C5H00484</v>
+        <v>AT19D90203</v>
       </c>
       <c r="C230" t="str">
-        <v>C15</v>
+        <v>DP50CNM</v>
       </c>
       <c r="D230" t="str">
-        <v>S6560KA</v>
+        <v>V007834</v>
       </c>
       <c r="E230" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>6546861</v>
+        <v>6717019</v>
       </c>
       <c r="B231" t="str">
-        <v>011800776</v>
+        <v>0LBS00410</v>
       </c>
       <c r="C231" t="str">
-        <v/>
+        <v>420F2</v>
       </c>
       <c r="D231" t="str">
-        <v>S6560KA</v>
+        <v>V008331</v>
       </c>
       <c r="E231" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>B &amp; H CONSTRUCTION</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>6546862</v>
+        <v>6717025</v>
       </c>
       <c r="B232" t="str">
-        <v>0LEZ04345</v>
+        <v>024282317</v>
       </c>
       <c r="C232" t="str">
-        <v>GEP 65-7</v>
+        <v/>
       </c>
       <c r="D232" t="str">
-        <v>V001387</v>
+        <v>S675478</v>
       </c>
       <c r="E232" t="str">
-        <v>KATHRYN KLONARIS</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>6546864</v>
+        <v>6717061</v>
       </c>
       <c r="B233" t="str">
-        <v>0C2Y01472</v>
+        <v>067V21515</v>
       </c>
       <c r="C233" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D233" t="str">
-        <v>S6560KA</v>
+        <v>E6560KK</v>
       </c>
       <c r="E233" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>6546865</v>
+        <v>6717063</v>
       </c>
       <c r="B234" t="str">
-        <v>A4EC110226</v>
+        <v>071Z00389</v>
       </c>
       <c r="C234" t="str">
-        <v/>
+        <v>3516</v>
       </c>
       <c r="D234" t="str">
-        <v>V001308</v>
+        <v>V007110</v>
       </c>
       <c r="E234" t="str">
-        <v>JOHN WATLING'S DISTILLERY LT</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>6546866</v>
+        <v>6717064</v>
       </c>
       <c r="B235" t="str">
-        <v>ATS511012</v>
+        <v>0C5H01637</v>
       </c>
       <c r="C235" t="str">
-        <v>P5000</v>
+        <v>C15</v>
       </c>
       <c r="D235" t="str">
-        <v>VG90186</v>
+        <v>V007778</v>
       </c>
       <c r="E235" t="str">
-        <v>BAHAMAS CUSTOMS DEPT.</v>
+        <v>THE OCEANVIEW OWNERS</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>6546867</v>
+        <v>6717065</v>
       </c>
       <c r="B236" t="str">
-        <v>0B4S02472</v>
+        <v>071Z00389</v>
       </c>
       <c r="C236" t="str">
-        <v>GEP88-1</v>
+        <v>3516</v>
       </c>
       <c r="D236" t="str">
-        <v>S6560KA</v>
+        <v>E6755KK</v>
       </c>
       <c r="E236" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>6546869</v>
+        <v>6717067</v>
       </c>
       <c r="B237" t="str">
-        <v>CMK00677</v>
+        <v>AT3430676</v>
       </c>
       <c r="C237" t="str">
-        <v/>
+        <v>P3500</v>
       </c>
       <c r="D237" t="str">
-        <v>S6560KA</v>
+        <v>V007302</v>
       </c>
       <c r="E237" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>BURNS HOUSE LTD.</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>6546870</v>
+        <v>6717071</v>
       </c>
       <c r="B238" t="str">
-        <v>0PXM07093</v>
+        <v>0C5H01637</v>
       </c>
       <c r="C238" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D238" t="str">
-        <v>S6560KA</v>
+        <v>V007778</v>
       </c>
       <c r="E238" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>THE OCEANVIEW OWNERS</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>6546871</v>
+        <v>6717072</v>
       </c>
       <c r="B239" t="str">
-        <v>004B15027</v>
+        <v>CRPF10411</v>
       </c>
       <c r="C239" t="str">
-        <v>3304</v>
+        <v/>
       </c>
       <c r="D239" t="str">
-        <v>S6560KA</v>
+        <v>V007006</v>
       </c>
       <c r="E239" t="str">
-        <v>INTERNAL CHARGES CSA SHOP</v>
+        <v>ANDRE AND DALIA FELDMAN</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>6546874</v>
+        <v>6717080</v>
       </c>
       <c r="B240" t="str">
-        <v>0MPW01540</v>
+        <v>RF1728815542</v>
       </c>
       <c r="C240" t="str">
-        <v>236D</v>
+        <v/>
       </c>
       <c r="D240" t="str">
-        <v>S655478</v>
+        <v>S675478</v>
       </c>
       <c r="E240" t="str">
         <v>RENTAL COMMISSIONING</v>
@@ -4462,353 +4462,353 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>6546875</v>
+        <v>6717082</v>
       </c>
       <c r="B241" t="str">
-        <v>0BPD00714</v>
+        <v>0TPJ00354</v>
       </c>
       <c r="C241" t="str">
-        <v>XQ2000</v>
+        <v/>
       </c>
       <c r="D241" t="str">
-        <v>S655478</v>
+        <v>E6755KK</v>
       </c>
       <c r="E241" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>6600795</v>
+        <v>6717083</v>
       </c>
       <c r="B242" t="str">
-        <v>0CMD00628</v>
+        <v>0ZAP00114</v>
       </c>
       <c r="C242" t="str">
         <v>3516</v>
       </c>
       <c r="D242" t="str">
-        <v>VG90190</v>
+        <v>V007310</v>
       </c>
       <c r="E242" t="str">
-        <v>B.E.C. FAMILY ISLAND</v>
+        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>6600812</v>
+        <v>6717085</v>
       </c>
       <c r="B243" t="str">
-        <v>067U17551</v>
+        <v>AT15E20097</v>
       </c>
       <c r="C243" t="str">
-        <v>3408C</v>
+        <v>DP135</v>
       </c>
       <c r="D243" t="str">
-        <v>V002796</v>
+        <v>V007834</v>
       </c>
       <c r="E243" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>6600819</v>
+        <v>6717087</v>
       </c>
       <c r="B244" t="str">
-        <v>0NAM00275</v>
+        <v>09RC00567</v>
       </c>
       <c r="C244" t="str">
-        <v/>
+        <v>3612</v>
       </c>
       <c r="D244" t="str">
-        <v>V000484</v>
+        <v>V007110</v>
       </c>
       <c r="E244" t="str">
-        <v>CARIBBEAN UTILITIES CO. LTD.</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>6600820</v>
+        <v>6717088</v>
       </c>
       <c r="B245" t="str">
-        <v>0NAM00201</v>
+        <v>0MLD00168</v>
       </c>
       <c r="C245" t="str">
-        <v/>
+        <v>TL943D</v>
       </c>
       <c r="D245" t="str">
-        <v>V000484</v>
+        <v>S675478</v>
       </c>
       <c r="E245" t="str">
-        <v>CARIBBEAN UTILITIES CO. LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>6600830</v>
+        <v>6717091</v>
       </c>
       <c r="B246" t="str">
-        <v>067U17551</v>
+        <v>AT3430676</v>
       </c>
       <c r="C246" t="str">
-        <v>3408C</v>
+        <v>P3500</v>
       </c>
       <c r="D246" t="str">
-        <v>V002796</v>
+        <v>V007302</v>
       </c>
       <c r="E246" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>BURNS HOUSE LTD.</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>6600832</v>
+        <v>6717092</v>
       </c>
       <c r="B247" t="str">
-        <v>68Z</v>
+        <v/>
       </c>
       <c r="C247" t="str">
         <v/>
       </c>
       <c r="D247" t="str">
-        <v>V002796</v>
+        <v>V007110</v>
       </c>
       <c r="E247" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>6600867</v>
+        <v>6717097</v>
       </c>
       <c r="B248" t="str">
-        <v>068Z01389</v>
+        <v>08RB00786</v>
       </c>
       <c r="C248" t="str">
-        <v>3508</v>
+        <v>3606</v>
       </c>
       <c r="D248" t="str">
-        <v>V002796</v>
+        <v>V007110</v>
       </c>
       <c r="E248" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>6600875</v>
+        <v>6717098</v>
       </c>
       <c r="B249" t="str">
-        <v>0CMD00630</v>
+        <v>08RB00786</v>
       </c>
       <c r="C249" t="str">
-        <v>3516</v>
+        <v>3606</v>
       </c>
       <c r="D249" t="str">
-        <v>VG90190</v>
+        <v>V007110</v>
       </c>
       <c r="E249" t="str">
-        <v>B.E.C. FAMILY ISLAND</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>6600876</v>
+        <v>6717100</v>
       </c>
       <c r="B250" t="str">
-        <v>0JSJ03342</v>
+        <v>0DJL01884</v>
       </c>
       <c r="C250" t="str">
-        <v>C32</v>
+        <v>420E</v>
       </c>
       <c r="D250" t="str">
-        <v>S665070</v>
+        <v>V000778</v>
       </c>
       <c r="E250" t="str">
-        <v>COMMISSIONING CAT NEW EQ</v>
+        <v>CASH SALE-SERVICE FREEPORT</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>6600895</v>
+        <v>6717101</v>
       </c>
       <c r="B251" t="str">
-        <v/>
+        <v>0DJL01884</v>
       </c>
       <c r="C251" t="str">
-        <v/>
+        <v>420E</v>
       </c>
       <c r="D251" t="str">
-        <v>V000484</v>
+        <v>V000778</v>
       </c>
       <c r="E251" t="str">
-        <v>CARIBBEAN UTILITIES CO. LTD.</v>
+        <v>CASH SALE-SERVICE FREEPORT</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>6600901</v>
+        <v>6717103</v>
       </c>
       <c r="B252" t="str">
-        <v>01PD00368</v>
+        <v>0PWK01586</v>
       </c>
       <c r="C252" t="str">
-        <v>3616</v>
+        <v>216B</v>
       </c>
       <c r="D252" t="str">
-        <v>VG90029</v>
+        <v>S675478</v>
       </c>
       <c r="E252" t="str">
-        <v>B.E.C. ABACO</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>6600902</v>
+        <v>6717105</v>
       </c>
       <c r="B253" t="str">
-        <v>0WYB00252</v>
+        <v>AT14F00511</v>
       </c>
       <c r="C253" t="str">
-        <v>C175-16</v>
+        <v>DP30NT</v>
       </c>
       <c r="D253" t="str">
-        <v>V001333</v>
+        <v>S675478</v>
       </c>
       <c r="E253" t="str">
-        <v>ST.GEORGE'S CAY POWER -D/S</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>6600907</v>
+        <v>6717106</v>
       </c>
       <c r="B254" t="str">
-        <v>067U21515</v>
+        <v>AT14F00532</v>
       </c>
       <c r="C254" t="str">
-        <v>3408B</v>
+        <v>DP30NT</v>
       </c>
       <c r="D254" t="str">
-        <v>V002796</v>
+        <v>S675478</v>
       </c>
       <c r="E254" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>6600908</v>
+        <v>6717107</v>
       </c>
       <c r="B255" t="str">
-        <v>067U21515</v>
+        <v>AT3430676</v>
       </c>
       <c r="C255" t="str">
-        <v>3408B</v>
+        <v>P3500</v>
       </c>
       <c r="D255" t="str">
-        <v>V002796</v>
+        <v>V007302</v>
       </c>
       <c r="E255" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>BURNS HOUSE LTD.</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>6600910</v>
+        <v>6717112</v>
       </c>
       <c r="B256" t="str">
-        <v>67U</v>
+        <v>0BPD00837</v>
       </c>
       <c r="C256" t="str">
-        <v/>
+        <v>XQ2000</v>
       </c>
       <c r="D256" t="str">
-        <v>V002796</v>
+        <v>S675478</v>
       </c>
       <c r="E256" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>6600911</v>
+        <v>6717113</v>
       </c>
       <c r="B257" t="str">
-        <v>025Z06796</v>
+        <v>07RN01290</v>
       </c>
       <c r="C257" t="str">
-        <v>3516</v>
+        <v>3516B</v>
       </c>
       <c r="D257" t="str">
-        <v>V004124</v>
+        <v>S675478</v>
       </c>
       <c r="E257" t="str">
-        <v>FORTIS TCI LIMITED</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>6600912</v>
+        <v>6717114</v>
       </c>
       <c r="B258" t="str">
-        <v>0WYB00660</v>
+        <v>0BPD00734</v>
       </c>
       <c r="C258" t="str">
-        <v>C175-16</v>
+        <v>XQ2000</v>
       </c>
       <c r="D258" t="str">
-        <v>V001333</v>
+        <v>S675478</v>
       </c>
       <c r="E258" t="str">
-        <v>ST.GEORGE'S CAY POWER -D/S</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>6600913</v>
+        <v>6717166</v>
       </c>
       <c r="B259" t="str">
-        <v>025Z06796</v>
+        <v/>
       </c>
       <c r="C259" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D259" t="str">
-        <v>V004124</v>
+        <v>V007031</v>
       </c>
       <c r="E259" t="str">
-        <v>FORTIS TCI LIMITED</v>
+        <v>GLEMINE INVESTMENTS LTD.</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>6600916</v>
+        <v>6717169</v>
       </c>
       <c r="B260" t="str">
-        <v>67U017151</v>
+        <v>067U17541</v>
       </c>
       <c r="C260" t="str">
-        <v/>
+        <v>3408C</v>
       </c>
       <c r="D260" t="str">
-        <v>V002796</v>
+        <v>V002795</v>
       </c>
       <c r="E260" t="str">
-        <v>CONSOLIDATED WATER -D/S</v>
+        <v>CONSOLIDATED WATER(BAH)LTD.</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>6600917</v>
+        <v>6717170</v>
       </c>
       <c r="B261" t="str">
-        <v/>
+        <v>067U17541</v>
       </c>
       <c r="C261" t="str">
-        <v/>
+        <v>3408C</v>
       </c>
       <c r="D261" t="str">
         <v>V002795</v>
@@ -4819,353 +4819,353 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>6600918</v>
+        <v>6717176</v>
       </c>
       <c r="B262" t="str">
-        <v>0JSJ03342</v>
+        <v>0LYF00878</v>
       </c>
       <c r="C262" t="str">
-        <v>C32</v>
+        <v>422F2</v>
       </c>
       <c r="D262" t="str">
-        <v>V004124</v>
+        <v>V007714</v>
       </c>
       <c r="E262" t="str">
-        <v>FORTIS TCI LIMITED</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>6600919</v>
+        <v>6717177</v>
       </c>
       <c r="B263" t="str">
-        <v>0WYB00660</v>
+        <v>0LYF00878</v>
       </c>
       <c r="C263" t="str">
-        <v>C175-16</v>
+        <v>422F2</v>
       </c>
       <c r="D263" t="str">
-        <v>V001333</v>
+        <v>V007714</v>
       </c>
       <c r="E263" t="str">
-        <v>ST.GEORGE'S CAY POWER -D/S</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>6600920</v>
+        <v>6717179</v>
       </c>
       <c r="B264" t="str">
-        <v>025Z02609</v>
+        <v>AT15E20106</v>
       </c>
       <c r="C264" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D264" t="str">
-        <v>VG90190</v>
+        <v>E6755KK</v>
       </c>
       <c r="E264" t="str">
-        <v>B.E.C. FAMILY ISLAND</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>6600921</v>
+        <v>6717180</v>
       </c>
       <c r="B265" t="str">
-        <v>0PRH07067</v>
+        <v>AT14F00530</v>
       </c>
       <c r="C265" t="str">
-        <v/>
+        <v>DP30NT</v>
       </c>
       <c r="D265" t="str">
-        <v>V004124</v>
+        <v>S675478</v>
       </c>
       <c r="E265" t="str">
-        <v>FORTIS TCI LIMITED</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>6600922</v>
+        <v>6717182</v>
       </c>
       <c r="B266" t="str">
-        <v>0NAM00275</v>
+        <v>A30034188</v>
       </c>
       <c r="C266" t="str">
         <v/>
       </c>
       <c r="D266" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E266" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>67B1805</v>
+        <v>6717183</v>
       </c>
       <c r="B267" t="str">
-        <v>1</v>
+        <v>A30034188</v>
       </c>
       <c r="C267" t="str">
-        <v>CRANE</v>
+        <v/>
       </c>
       <c r="D267" t="str">
-        <v>S67PART</v>
+        <v>V007714</v>
       </c>
       <c r="E267" t="str">
-        <v>INTERNAL PARTS CONSUMPTION</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>67C1805</v>
+        <v>6717184</v>
       </c>
       <c r="B268" t="str">
-        <v/>
+        <v>AT18D00542</v>
       </c>
       <c r="C268" t="str">
         <v/>
       </c>
       <c r="D268" t="str">
-        <v>S67CONS</v>
+        <v>E6755KK</v>
       </c>
       <c r="E268" t="str">
-        <v>SHOP CONSUMABLES MONTHLY WO</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>67F1805</v>
+        <v>6717187</v>
       </c>
       <c r="B269" t="str">
-        <v>WOBS</v>
+        <v>0C5H01637</v>
       </c>
       <c r="C269" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D269" t="str">
-        <v>S67FIAS</v>
+        <v>V007778</v>
       </c>
       <c r="E269" t="str">
-        <v>FIXED ASSETS MONTHLY WO</v>
+        <v>THE OCEANVIEW OWNERS</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>67M1805</v>
+        <v>6717188</v>
       </c>
       <c r="B270" t="str">
-        <v/>
+        <v>0C5H01637</v>
       </c>
       <c r="C270" t="str">
-        <v/>
+        <v>C15</v>
       </c>
       <c r="D270" t="str">
-        <v>S67MONT</v>
+        <v>V007778</v>
       </c>
       <c r="E270" t="str">
-        <v>GENERAL SHOP MONTHLY WO</v>
+        <v>THE OCEANVIEW OWNERS</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>67P1805</v>
+        <v>6717189</v>
       </c>
       <c r="B271" t="str">
-        <v>WOBS</v>
+        <v>0GTH00567</v>
       </c>
       <c r="C271" t="str">
-        <v/>
+        <v>DE110E2CA</v>
       </c>
       <c r="D271" t="str">
-        <v>S67PART</v>
+        <v>S675478</v>
       </c>
       <c r="E271" t="str">
-        <v>INTERNAL PARTS CONSUMPTION</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>67R1805</v>
+        <v>6717190</v>
       </c>
       <c r="B272" t="str">
-        <v/>
+        <v>300167958</v>
       </c>
       <c r="C272" t="str">
         <v/>
       </c>
       <c r="D272" t="str">
-        <v>S6760ED</v>
+        <v>S675478</v>
       </c>
       <c r="E272" t="str">
-        <v>INTERNAL CHARGES ENGINE AND</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>67T1805</v>
+        <v>6717191</v>
       </c>
       <c r="B273" t="str">
-        <v>WOBS</v>
+        <v>3001671959</v>
       </c>
       <c r="C273" t="str">
         <v/>
       </c>
       <c r="D273" t="str">
-        <v>S67TOOL</v>
+        <v>S675478</v>
       </c>
       <c r="E273" t="str">
-        <v>TOOLS MONTHLY WORK ORDER</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>6716634</v>
+        <v>6717192</v>
       </c>
       <c r="B274" t="str">
-        <v>0300072260</v>
+        <v>300135078</v>
       </c>
       <c r="C274" t="str">
         <v/>
       </c>
       <c r="D274" t="str">
-        <v>V007766</v>
+        <v>S675478</v>
       </c>
       <c r="E274" t="str">
-        <v>BAHAMA ROCK LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>6716774</v>
+        <v>6717193</v>
       </c>
       <c r="B275" t="str">
-        <v>AT14F00531</v>
+        <v>200193650</v>
       </c>
       <c r="C275" t="str">
-        <v>DP30NT</v>
+        <v/>
       </c>
       <c r="D275" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E275" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>6716854</v>
+        <v>6717194</v>
       </c>
       <c r="B276" t="str">
-        <v>0GBY05161</v>
+        <v>200193650</v>
       </c>
       <c r="C276" t="str">
-        <v>DE16E3</v>
+        <v/>
       </c>
       <c r="D276" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E276" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>6716857</v>
+        <v>6717195</v>
       </c>
       <c r="B277" t="str">
-        <v>4K608717</v>
+        <v/>
       </c>
       <c r="C277" t="str">
         <v/>
       </c>
       <c r="D277" t="str">
-        <v>E6755KK</v>
+        <v>V007502</v>
       </c>
       <c r="E277" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>MOTHERWELL BRIDGE BHICAM LIM</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>6716887</v>
+        <v>6717200</v>
       </c>
       <c r="B278" t="str">
-        <v>200193650</v>
+        <v>AT19D90191</v>
       </c>
       <c r="C278" t="str">
-        <v/>
+        <v>DP50K</v>
       </c>
       <c r="D278" t="str">
-        <v>V007714</v>
+        <v>S675478</v>
       </c>
       <c r="E278" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>6716888</v>
+        <v>6717202</v>
       </c>
       <c r="B279" t="str">
-        <v>AT17C00628</v>
+        <v>AT14F00760</v>
       </c>
       <c r="C279" t="str">
-        <v>ACCESORIES</v>
+        <v>DP30NM5</v>
       </c>
       <c r="D279" t="str">
-        <v>V007714</v>
+        <v>S675478</v>
       </c>
       <c r="E279" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>6716889</v>
+        <v>6717203</v>
       </c>
       <c r="B280" t="str">
-        <v>AT17C00628</v>
+        <v>067V21515</v>
       </c>
       <c r="C280" t="str">
-        <v>ACCESORIES</v>
+        <v/>
       </c>
       <c r="D280" t="str">
-        <v>V007714</v>
+        <v>E6755KK</v>
       </c>
       <c r="E280" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>6716890</v>
+        <v>6717213</v>
       </c>
       <c r="B281" t="str">
-        <v>AT3521123</v>
+        <v/>
       </c>
       <c r="C281" t="str">
-        <v>ACCESORIES</v>
+        <v/>
       </c>
       <c r="D281" t="str">
-        <v>V007714</v>
+        <v>V007390</v>
       </c>
       <c r="E281" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>EXPRESS FOOD MART CO. LTD</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>6716891</v>
+        <v>6717215</v>
       </c>
       <c r="B282" t="str">
-        <v>AT3521123</v>
+        <v>0300092364</v>
       </c>
       <c r="C282" t="str">
-        <v>ACCESORIES</v>
+        <v/>
       </c>
       <c r="D282" t="str">
         <v>V007714</v>
@@ -5176,268 +5176,268 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>6716892</v>
+        <v>6717217</v>
       </c>
       <c r="B283" t="str">
-        <v>AT19CR0375</v>
+        <v>0EPS00795</v>
       </c>
       <c r="C283" t="str">
-        <v>ACCESORIES</v>
+        <v>3306B</v>
       </c>
       <c r="D283" t="str">
-        <v>V007714</v>
+        <v>V007113</v>
       </c>
       <c r="E283" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>BAHAMA REEF CONDOMINIUM</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>6716893</v>
+        <v>6717218</v>
       </c>
       <c r="B284" t="str">
-        <v>AT19CR0375</v>
+        <v>0HEN04205</v>
       </c>
       <c r="C284" t="str">
-        <v>ACCESORIES</v>
+        <v>236B</v>
       </c>
       <c r="D284" t="str">
-        <v>V007714</v>
+        <v>S675478</v>
       </c>
       <c r="E284" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>6716908</v>
+        <v>6717220</v>
       </c>
       <c r="B285" t="str">
-        <v>09RC00567</v>
+        <v>03FZ08920</v>
       </c>
       <c r="C285" t="str">
-        <v>3612</v>
+        <v>3412C</v>
       </c>
       <c r="D285" t="str">
-        <v>V007110</v>
+        <v>V007733</v>
       </c>
       <c r="E285" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>GRAND BAHAMA POWER CO.LTD</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>6716918</v>
+        <v>6717222</v>
       </c>
       <c r="B286" t="str">
-        <v>071Z00389</v>
+        <v>AT15E20092</v>
       </c>
       <c r="C286" t="str">
-        <v>3516</v>
+        <v>DP100</v>
       </c>
       <c r="D286" t="str">
-        <v>V007110</v>
+        <v>V007834</v>
       </c>
       <c r="E286" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>6716924</v>
+        <v>6717224</v>
       </c>
       <c r="B287" t="str">
-        <v>024233287</v>
+        <v>065Z01530</v>
       </c>
       <c r="C287" t="str">
-        <v/>
+        <v>3512</v>
       </c>
       <c r="D287" t="str">
-        <v>V007834</v>
+        <v>V007111</v>
       </c>
       <c r="E287" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>6716929</v>
+        <v>6717225</v>
       </c>
       <c r="B288" t="str">
-        <v>AT14F00521</v>
+        <v>0MKH00237</v>
       </c>
       <c r="C288" t="str">
-        <v>DP30NT</v>
+        <v>3512B</v>
       </c>
       <c r="D288" t="str">
-        <v>E6755KK</v>
+        <v>V007716</v>
       </c>
       <c r="E288" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>SVITZER BAHAMAS LTD.</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>6716932</v>
+        <v>6717229</v>
       </c>
       <c r="B289" t="str">
-        <v>AT39A00072</v>
+        <v>AT14F00522</v>
       </c>
       <c r="C289" t="str">
-        <v>DP160</v>
+        <v>DP30NT</v>
       </c>
       <c r="D289" t="str">
-        <v>E6755KK</v>
+        <v>S675478</v>
       </c>
       <c r="E289" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>6716954</v>
+        <v>6717231</v>
       </c>
       <c r="B290" t="str">
-        <v>AT14F00527</v>
+        <v>AT39A00072</v>
       </c>
       <c r="C290" t="str">
-        <v>DP30NT</v>
+        <v>DP160</v>
       </c>
       <c r="D290" t="str">
-        <v>E6755KK</v>
+        <v>S675478</v>
       </c>
       <c r="E290" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>6716955</v>
+        <v>6717232</v>
       </c>
       <c r="B291" t="str">
-        <v>GT900355</v>
+        <v>0KCB37238</v>
       </c>
       <c r="C291" t="str">
-        <v/>
+        <v>C13</v>
       </c>
       <c r="D291" t="str">
-        <v>S675478</v>
+        <v>V000778</v>
       </c>
       <c r="E291" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>CASH SALE-SERVICE FREEPORT</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>6716956</v>
+        <v>6717233</v>
       </c>
       <c r="B292" t="str">
-        <v>AT15E20089</v>
+        <v>0NBR00206</v>
       </c>
       <c r="C292" t="str">
-        <v/>
+        <v>XQ2000</v>
       </c>
       <c r="D292" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E292" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>6716992</v>
+        <v>6717234</v>
       </c>
       <c r="B293" t="str">
-        <v>AT14F00527</v>
+        <v>0NBR00206</v>
       </c>
       <c r="C293" t="str">
-        <v>DP30NT</v>
+        <v>XQ2000</v>
       </c>
       <c r="D293" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E293" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>6716994</v>
+        <v>6717235</v>
       </c>
       <c r="B294" t="str">
-        <v>065Z01530</v>
+        <v>NB300102</v>
       </c>
       <c r="C294" t="str">
-        <v>3512</v>
+        <v>APS 300</v>
       </c>
       <c r="D294" t="str">
-        <v>V007110</v>
+        <v>S675478</v>
       </c>
       <c r="E294" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>6716995</v>
+        <v>6717236</v>
       </c>
       <c r="B295" t="str">
-        <v>0MLD00169</v>
+        <v>24326766</v>
       </c>
       <c r="C295" t="str">
-        <v>TL943D</v>
+        <v>LTN6K</v>
       </c>
       <c r="D295" t="str">
-        <v>V007834</v>
+        <v>S675478</v>
       </c>
       <c r="E295" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>6716996</v>
+        <v>6717237</v>
       </c>
       <c r="B296" t="str">
-        <v>AT14F00527</v>
+        <v>24325379</v>
       </c>
       <c r="C296" t="str">
-        <v>DP30NT</v>
+        <v>LTN6K</v>
       </c>
       <c r="D296" t="str">
-        <v>V007834</v>
+        <v>S675478</v>
       </c>
       <c r="E296" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>6716997</v>
+        <v>6717238</v>
       </c>
       <c r="B297" t="str">
-        <v>AT19D90203</v>
+        <v>24233294</v>
       </c>
       <c r="C297" t="str">
-        <v>DP50CNM</v>
+        <v>LTN6C</v>
       </c>
       <c r="D297" t="str">
-        <v>V007834</v>
+        <v>S675478</v>
       </c>
       <c r="E297" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>6716998</v>
+        <v>6717239</v>
       </c>
       <c r="B298" t="str">
-        <v>AT14F00584</v>
+        <v>AT14F00526</v>
       </c>
       <c r="C298" t="str">
-        <v>DP30NM5</v>
+        <v>DP30NT</v>
       </c>
       <c r="D298" t="str">
         <v>S675478</v>
@@ -5448,30 +5448,30 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>6717019</v>
+        <v>6717240</v>
       </c>
       <c r="B299" t="str">
-        <v>0LBS00410</v>
+        <v>AT14F00521</v>
       </c>
       <c r="C299" t="str">
-        <v>420F2</v>
+        <v>DP30NT</v>
       </c>
       <c r="D299" t="str">
-        <v>V008331</v>
+        <v>S675478</v>
       </c>
       <c r="E299" t="str">
-        <v>B &amp; H CONSTRUCTION</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>6717022</v>
+        <v>6717241</v>
       </c>
       <c r="B300" t="str">
-        <v>300165314</v>
+        <v>AT14F00761</v>
       </c>
       <c r="C300" t="str">
-        <v/>
+        <v>DP30NM5</v>
       </c>
       <c r="D300" t="str">
         <v>S675478</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>6717025</v>
+        <v>6717242</v>
       </c>
       <c r="B301" t="str">
-        <v>024282317</v>
+        <v>3001946525</v>
       </c>
       <c r="C301" t="str">
         <v/>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>6717026</v>
+        <v>6717243</v>
       </c>
       <c r="B302" t="str">
-        <v>024326766</v>
+        <v>3001948845</v>
       </c>
       <c r="C302" t="str">
         <v/>
@@ -5516,152 +5516,152 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>6717029</v>
+        <v>6717244</v>
       </c>
       <c r="B303" t="str">
-        <v>A11600293</v>
+        <v>3001946457</v>
       </c>
       <c r="C303" t="str">
-        <v>GEPX44-3</v>
+        <v/>
       </c>
       <c r="D303" t="str">
-        <v>V007714</v>
+        <v>S675478</v>
       </c>
       <c r="E303" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>6717031</v>
+        <v>6717245</v>
       </c>
       <c r="B304" t="str">
-        <v>0C5G00399</v>
+        <v/>
       </c>
       <c r="C304" t="str">
-        <v>3406</v>
+        <v/>
       </c>
       <c r="D304" t="str">
-        <v>V007714</v>
+        <v>E6760KK</v>
       </c>
       <c r="E304" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>6717036</v>
+        <v>6717246</v>
       </c>
       <c r="B305" t="str">
-        <v>OLY00000J11705850</v>
+        <v>24367071</v>
       </c>
       <c r="C305" t="str">
-        <v>GEP23SP1</v>
+        <v>LTN6K</v>
       </c>
       <c r="D305" t="str">
-        <v>V007712</v>
+        <v>S675478</v>
       </c>
       <c r="E305" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>6717037</v>
+        <v>6717247</v>
       </c>
       <c r="B306" t="str">
-        <v>0B8D01112</v>
+        <v>24325381</v>
       </c>
       <c r="C306" t="str">
-        <v>3306B</v>
+        <v>LTN6K</v>
       </c>
       <c r="D306" t="str">
-        <v>V007712</v>
+        <v>S675478</v>
       </c>
       <c r="E306" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>6717038</v>
+        <v>6717248</v>
       </c>
       <c r="B307" t="str">
-        <v>OLY00000J11705850</v>
+        <v>201512020016</v>
       </c>
       <c r="C307" t="str">
-        <v>GEP23SP1</v>
+        <v/>
       </c>
       <c r="D307" t="str">
-        <v>V007712</v>
+        <v>S675478</v>
       </c>
       <c r="E307" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>6717040</v>
+        <v>6717249</v>
       </c>
       <c r="B308" t="str">
-        <v>E11600301</v>
+        <v>201610180011</v>
       </c>
       <c r="C308" t="str">
         <v/>
       </c>
       <c r="D308" t="str">
-        <v>V007712</v>
+        <v>S675478</v>
       </c>
       <c r="E308" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>6717045</v>
+        <v>6717250</v>
       </c>
       <c r="B309" t="str">
-        <v>XS650U03009561</v>
+        <v>AT19D90191</v>
       </c>
       <c r="C309" t="str">
-        <v/>
+        <v>DP50K</v>
       </c>
       <c r="D309" t="str">
-        <v>V007731</v>
+        <v>V007834</v>
       </c>
       <c r="E309" t="str">
-        <v>GRAND BAHAMA AIRPORT CO.</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>6717046</v>
+        <v>6717251</v>
       </c>
       <c r="B310" t="str">
-        <v>OLY00000VRNS02794</v>
+        <v/>
       </c>
       <c r="C310" t="str">
         <v/>
       </c>
       <c r="D310" t="str">
-        <v>V007731</v>
+        <v>V004124</v>
       </c>
       <c r="E310" t="str">
-        <v>GRAND BAHAMA AIRPORT CO.</v>
+        <v>FORTIS TCI LIMITED</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>6717061</v>
+        <v>6717252</v>
       </c>
       <c r="B311" t="str">
-        <v>067V21515</v>
+        <v/>
       </c>
       <c r="C311" t="str">
         <v/>
       </c>
       <c r="D311" t="str">
-        <v>E6560KK</v>
+        <v>E6760KK</v>
       </c>
       <c r="E311" t="str">
         <v>INTERNAL CHARGES SERVICE</v>
@@ -5669,81 +5669,81 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>6717062</v>
+        <v>6717253</v>
       </c>
       <c r="B312" t="str">
-        <v>T3400106</v>
+        <v>09RC00567</v>
       </c>
       <c r="C312" t="str">
-        <v>C18</v>
+        <v>3612</v>
       </c>
       <c r="D312" t="str">
-        <v>S675478</v>
+        <v>E6755KK</v>
       </c>
       <c r="E312" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>CAT WARRANTY GENERIC</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>6717063</v>
+        <v>6717255</v>
       </c>
       <c r="B313" t="str">
-        <v>071Z00389</v>
+        <v>3001946455</v>
       </c>
       <c r="C313" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D313" t="str">
-        <v>V007110</v>
+        <v>S675478</v>
       </c>
       <c r="E313" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>6717064</v>
+        <v>6717256</v>
       </c>
       <c r="B314" t="str">
-        <v>0C5H01637</v>
+        <v>0B8D01112</v>
       </c>
       <c r="C314" t="str">
-        <v>C15</v>
+        <v>3306B</v>
       </c>
       <c r="D314" t="str">
-        <v>V007778</v>
+        <v>V007712</v>
       </c>
       <c r="E314" t="str">
-        <v>THE OCEANVIEW OWNERS</v>
+        <v>FREEPORT HARBOUR CO. LTD.</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>6717065</v>
+        <v>6717257</v>
       </c>
       <c r="B315" t="str">
-        <v>071Z00389</v>
+        <v>300114363</v>
       </c>
       <c r="C315" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D315" t="str">
-        <v>E6755KK</v>
+        <v>S675478</v>
       </c>
       <c r="E315" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>6717066</v>
+        <v>6717258</v>
       </c>
       <c r="B316" t="str">
-        <v>300116889</v>
+        <v>0LBS00678</v>
       </c>
       <c r="C316" t="str">
-        <v/>
+        <v>422F2</v>
       </c>
       <c r="D316" t="str">
         <v>S675478</v>
@@ -5754,44 +5754,44 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>6717067</v>
+        <v>6717259</v>
       </c>
       <c r="B317" t="str">
-        <v>AT3430676</v>
+        <v>24233287</v>
       </c>
       <c r="C317" t="str">
-        <v>P3500</v>
+        <v>LTN6C</v>
       </c>
       <c r="D317" t="str">
-        <v>V007302</v>
+        <v>V007834</v>
       </c>
       <c r="E317" t="str">
-        <v>BURNS HOUSE LTD.</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>6717069</v>
+        <v>6717260</v>
       </c>
       <c r="B318" t="str">
-        <v>0KPZ00663</v>
+        <v>AT14F00585</v>
       </c>
       <c r="C318" t="str">
-        <v>D8T</v>
+        <v>DP30NM5</v>
       </c>
       <c r="D318" t="str">
-        <v>S675478</v>
+        <v>V007834</v>
       </c>
       <c r="E318" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>6717070</v>
+        <v>6717261</v>
       </c>
       <c r="B319" t="str">
-        <v>300126991</v>
+        <v/>
       </c>
       <c r="C319" t="str">
         <v/>
@@ -5805,44 +5805,44 @@
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>6717071</v>
+        <v>6717262</v>
       </c>
       <c r="B320" t="str">
-        <v>0C5H01637</v>
+        <v>0JXP00103</v>
       </c>
       <c r="C320" t="str">
-        <v>C15</v>
+        <v/>
       </c>
       <c r="D320" t="str">
-        <v>V007778</v>
+        <v>S675478</v>
       </c>
       <c r="E320" t="str">
-        <v>THE OCEANVIEW OWNERS</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>6717072</v>
+        <v>6717263</v>
       </c>
       <c r="B321" t="str">
-        <v>CRPF10411</v>
+        <v>OLY000J11600368</v>
       </c>
       <c r="C321" t="str">
         <v/>
       </c>
       <c r="D321" t="str">
-        <v>V007006</v>
+        <v>V007712</v>
       </c>
       <c r="E321" t="str">
-        <v>ANDRE AND DALIA FELDMAN</v>
+        <v>FREEPORT HARBOUR CO. LTD.</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>6717074</v>
+        <v>6717264</v>
       </c>
       <c r="B322" t="str">
-        <v>300129831</v>
+        <v>300135078</v>
       </c>
       <c r="C322" t="str">
         <v/>
@@ -5856,166 +5856,166 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>6717080</v>
+        <v>6717266</v>
       </c>
       <c r="B323" t="str">
-        <v>RF1728815542</v>
+        <v>AT15E20095</v>
       </c>
       <c r="C323" t="str">
-        <v/>
+        <v>DP100</v>
       </c>
       <c r="D323" t="str">
-        <v>S675478</v>
+        <v>V007834</v>
       </c>
       <c r="E323" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>GRAND BAHAMA SHIPYARD</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>6717082</v>
+        <v>6717267</v>
       </c>
       <c r="B324" t="str">
-        <v>0TPJ00354</v>
+        <v>0LYF00878</v>
       </c>
       <c r="C324" t="str">
-        <v/>
+        <v>422F2</v>
       </c>
       <c r="D324" t="str">
-        <v>E6755KK</v>
+        <v>V007714</v>
       </c>
       <c r="E324" t="str">
-        <v>CAT WARRANTY GENERIC</v>
+        <v>FREEPORT CONTAINER PORT</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>6717083</v>
+        <v>6717269</v>
       </c>
       <c r="B325" t="str">
-        <v>0ZAP00114</v>
+        <v>GT900355</v>
       </c>
       <c r="C325" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D325" t="str">
-        <v>V007310</v>
+        <v>S675478</v>
       </c>
       <c r="E325" t="str">
-        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>6717085</v>
+        <v>6717270</v>
       </c>
       <c r="B326" t="str">
-        <v>AT15E20097</v>
+        <v/>
       </c>
       <c r="C326" t="str">
-        <v>DP135</v>
+        <v/>
       </c>
       <c r="D326" t="str">
-        <v>V007834</v>
+        <v>V007731</v>
       </c>
       <c r="E326" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
+        <v>GRAND BAHAMA AIRPORT CO.</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>6717087</v>
+        <v>6717271</v>
       </c>
       <c r="B327" t="str">
-        <v>09RC00567</v>
+        <v>0300084122</v>
       </c>
       <c r="C327" t="str">
-        <v>3612</v>
+        <v/>
       </c>
       <c r="D327" t="str">
-        <v>V007110</v>
+        <v>V007766</v>
       </c>
       <c r="E327" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>BAHAMA ROCK LTD.</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>6717088</v>
+        <v>6717272</v>
       </c>
       <c r="B328" t="str">
-        <v>0MLD00168</v>
+        <v>0300084122</v>
       </c>
       <c r="C328" t="str">
-        <v>TL943D</v>
+        <v/>
       </c>
       <c r="D328" t="str">
-        <v>S675478</v>
+        <v>V007766</v>
       </c>
       <c r="E328" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BAHAMA ROCK LTD.</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>6717089</v>
+        <v>6717273</v>
       </c>
       <c r="B329" t="str">
-        <v>AT14F00512</v>
+        <v>0PLW01670</v>
       </c>
       <c r="C329" t="str">
-        <v>DP30NT</v>
+        <v>329EL</v>
       </c>
       <c r="D329" t="str">
-        <v>S675478</v>
+        <v>V007005</v>
       </c>
       <c r="E329" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>A &amp; C EQUIPMENT &amp; TRUCKING</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>6717091</v>
+        <v>6717277</v>
       </c>
       <c r="B330" t="str">
-        <v>AT3430676</v>
+        <v>CAT00C44JECL02023</v>
       </c>
       <c r="C330" t="str">
-        <v>P3500</v>
+        <v/>
       </c>
       <c r="D330" t="str">
-        <v>V007302</v>
+        <v>S675478</v>
       </c>
       <c r="E330" t="str">
-        <v>BURNS HOUSE LTD.</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>6717092</v>
+        <v>6717278</v>
       </c>
       <c r="B331" t="str">
-        <v/>
+        <v>065Z01530</v>
       </c>
       <c r="C331" t="str">
-        <v/>
+        <v>3512</v>
       </c>
       <c r="D331" t="str">
-        <v>V007110</v>
+        <v>E6760KK</v>
       </c>
       <c r="E331" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>INTERNAL CHARGES SERVICE</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>6717096</v>
+        <v>6717279</v>
       </c>
       <c r="B332" t="str">
-        <v>300125042</v>
+        <v>0TBN01020</v>
       </c>
       <c r="C332" t="str">
-        <v/>
+        <v>TL1255</v>
       </c>
       <c r="D332" t="str">
         <v>S675478</v>
@@ -6026,10 +6026,10 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>6717097</v>
+        <v>6717280</v>
       </c>
       <c r="B333" t="str">
-        <v>08RB00786</v>
+        <v>08RB00562</v>
       </c>
       <c r="C333" t="str">
         <v>3606</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>6717098</v>
+        <v>6717281</v>
       </c>
       <c r="B334" t="str">
         <v>08RB00786</v>
@@ -6060,234 +6060,234 @@
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>6717100</v>
+        <v>6717282</v>
       </c>
       <c r="B335" t="str">
-        <v>0DJL01884</v>
+        <v>071Z00403</v>
       </c>
       <c r="C335" t="str">
-        <v>420E</v>
+        <v>3516</v>
       </c>
       <c r="D335" t="str">
-        <v>V000778</v>
+        <v>V007110</v>
       </c>
       <c r="E335" t="str">
-        <v>CASH SALE-SERVICE FREEPORT</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>6717101</v>
+        <v>6717283</v>
       </c>
       <c r="B336" t="str">
-        <v>0DJL01884</v>
+        <v>071Z00359</v>
       </c>
       <c r="C336" t="str">
-        <v>420E</v>
+        <v>3516</v>
       </c>
       <c r="D336" t="str">
-        <v>V000778</v>
+        <v>V007110</v>
       </c>
       <c r="E336" t="str">
-        <v>CASH SALE-SERVICE FREEPORT</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>6717103</v>
+        <v>6717284</v>
       </c>
       <c r="B337" t="str">
-        <v>0PWK01586</v>
+        <v>071Z00389</v>
       </c>
       <c r="C337" t="str">
-        <v>216B</v>
+        <v>3516</v>
       </c>
       <c r="D337" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E337" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>6717105</v>
+        <v>6717285</v>
       </c>
       <c r="B338" t="str">
-        <v>AT14F00511</v>
+        <v>08RB01009</v>
       </c>
       <c r="C338" t="str">
-        <v>DP30NT</v>
+        <v>3606</v>
       </c>
       <c r="D338" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E338" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>6717106</v>
+        <v>6717286</v>
       </c>
       <c r="B339" t="str">
-        <v>AT14F00532</v>
+        <v>08RB01010</v>
       </c>
       <c r="C339" t="str">
-        <v>DP30NT</v>
+        <v>3606</v>
       </c>
       <c r="D339" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E339" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>6717107</v>
+        <v>6717287</v>
       </c>
       <c r="B340" t="str">
-        <v>AT3430676</v>
+        <v>065Z01530</v>
       </c>
       <c r="C340" t="str">
-        <v>P3500</v>
+        <v>3512</v>
       </c>
       <c r="D340" t="str">
-        <v>V007302</v>
+        <v>V007110</v>
       </c>
       <c r="E340" t="str">
-        <v>BURNS HOUSE LTD.</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>6717109</v>
+        <v>6717288</v>
       </c>
       <c r="B341" t="str">
-        <v>300132191</v>
+        <v>08RB01013</v>
       </c>
       <c r="C341" t="str">
-        <v/>
+        <v>3606</v>
       </c>
       <c r="D341" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E341" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>6717110</v>
+        <v>6717289</v>
       </c>
       <c r="B342" t="str">
-        <v>0PWK01587</v>
+        <v>08RB01014</v>
       </c>
       <c r="C342" t="str">
-        <v>216B</v>
+        <v>3606</v>
       </c>
       <c r="D342" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E342" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>6717112</v>
+        <v>6717290</v>
       </c>
       <c r="B343" t="str">
-        <v>0BPD00837</v>
+        <v>08RB01015</v>
       </c>
       <c r="C343" t="str">
-        <v/>
+        <v>3606</v>
       </c>
       <c r="D343" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E343" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>6717113</v>
+        <v>6717291</v>
       </c>
       <c r="B344" t="str">
-        <v>07RN01290</v>
+        <v>08RB01016</v>
       </c>
       <c r="C344" t="str">
-        <v>3516B</v>
+        <v>3606</v>
       </c>
       <c r="D344" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E344" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>6717114</v>
+        <v>6717292</v>
       </c>
       <c r="B345" t="str">
-        <v>0BPD00734</v>
+        <v>09RC00546</v>
       </c>
       <c r="C345" t="str">
-        <v/>
+        <v>3612</v>
       </c>
       <c r="D345" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E345" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>6717115</v>
+        <v>6717293</v>
       </c>
       <c r="B346" t="str">
-        <v/>
+        <v>09RC00547</v>
       </c>
       <c r="C346" t="str">
-        <v/>
+        <v>3612</v>
       </c>
       <c r="D346" t="str">
-        <v>E6760KK</v>
+        <v>V007110</v>
       </c>
       <c r="E346" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>6717116</v>
+        <v>6717294</v>
       </c>
       <c r="B347" t="str">
-        <v>24233295</v>
+        <v>0REH08637</v>
       </c>
       <c r="C347" t="str">
-        <v>LTN6C</v>
+        <v/>
       </c>
       <c r="D347" t="str">
-        <v>S675478</v>
+        <v>V007110</v>
       </c>
       <c r="E347" t="str">
-        <v>RENTAL COMMISSIONING</v>
+        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>6717117</v>
+        <v>6717295</v>
       </c>
       <c r="B348" t="str">
-        <v>08RB00562</v>
+        <v>C114384</v>
       </c>
       <c r="C348" t="str">
-        <v>3606</v>
+        <v/>
       </c>
       <c r="D348" t="str">
         <v>V007110</v>
@@ -6298,13 +6298,13 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>6717118</v>
+        <v>6717296</v>
       </c>
       <c r="B349" t="str">
-        <v>08RB00786</v>
+        <v>C114385</v>
       </c>
       <c r="C349" t="str">
-        <v>3606</v>
+        <v/>
       </c>
       <c r="D349" t="str">
         <v>V007110</v>
@@ -6315,30 +6315,30 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>6717119</v>
+        <v>6717297</v>
       </c>
       <c r="B350" t="str">
-        <v>071Z00403</v>
+        <v/>
       </c>
       <c r="C350" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D350" t="str">
-        <v>V007110</v>
+        <v>S675478</v>
       </c>
       <c r="E350" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>RENTAL COMMISSIONING</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>6717120</v>
+        <v>6717298</v>
       </c>
       <c r="B351" t="str">
-        <v>071Z00359</v>
+        <v>0B4H01657</v>
       </c>
       <c r="C351" t="str">
-        <v>3516</v>
+        <v>GEP110</v>
       </c>
       <c r="D351" t="str">
         <v>V007110</v>
@@ -6349,13 +6349,13 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>6717121</v>
+        <v>6717299</v>
       </c>
       <c r="B352" t="str">
-        <v>071Z00389</v>
+        <v>0C5H02135</v>
       </c>
       <c r="C352" t="str">
-        <v>3516</v>
+        <v>C15</v>
       </c>
       <c r="D352" t="str">
         <v>V007110</v>
@@ -6366,13 +6366,13 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>6717122</v>
+        <v>6717300</v>
       </c>
       <c r="B353" t="str">
-        <v>08RB01009</v>
+        <v>0C5H02396</v>
       </c>
       <c r="C353" t="str">
-        <v>3606</v>
+        <v>C15</v>
       </c>
       <c r="D353" t="str">
         <v>V007110</v>
@@ -6383,13 +6383,13 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>6717123</v>
+        <v>6717301</v>
       </c>
       <c r="B354" t="str">
-        <v>08RB01010</v>
+        <v>0C5H02854</v>
       </c>
       <c r="C354" t="str">
-        <v>3606</v>
+        <v>C15</v>
       </c>
       <c r="D354" t="str">
         <v>V007110</v>
@@ -6400,13 +6400,13 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>6717124</v>
+        <v>6717302</v>
       </c>
       <c r="B355" t="str">
-        <v>065Z01530</v>
+        <v>0YAM00639</v>
       </c>
       <c r="C355" t="str">
-        <v>3512</v>
+        <v>3512B</v>
       </c>
       <c r="D355" t="str">
         <v>V007110</v>
@@ -6417,13 +6417,13 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>6717125</v>
+        <v>6717303</v>
       </c>
       <c r="B356" t="str">
-        <v>08RB01013</v>
+        <v>0ECL00287</v>
       </c>
       <c r="C356" t="str">
-        <v>3606</v>
+        <v>DE110E2CA</v>
       </c>
       <c r="D356" t="str">
         <v>V007110</v>
@@ -6434,13 +6434,13 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>6717126</v>
+        <v>6717304</v>
       </c>
       <c r="B357" t="str">
-        <v>08RB01014</v>
+        <v>0X3R00557</v>
       </c>
       <c r="C357" t="str">
-        <v>3606</v>
+        <v>XQ230</v>
       </c>
       <c r="D357" t="str">
         <v>V007110</v>
@@ -6451,13 +6451,13 @@
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>6717127</v>
+        <v>6717305</v>
       </c>
       <c r="B358" t="str">
-        <v>08RB01015</v>
+        <v>018800005</v>
       </c>
       <c r="C358" t="str">
-        <v>3606</v>
+        <v/>
       </c>
       <c r="D358" t="str">
         <v>V007110</v>
@@ -6468,13 +6468,13 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>6717128</v>
+        <v>6717306</v>
       </c>
       <c r="B359" t="str">
-        <v>08RB01016</v>
+        <v>0X4R00572</v>
       </c>
       <c r="C359" t="str">
-        <v>3606</v>
+        <v/>
       </c>
       <c r="D359" t="str">
         <v>V007110</v>
@@ -6485,13 +6485,13 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>6717129</v>
+        <v>6717307</v>
       </c>
       <c r="B360" t="str">
-        <v>09RC00546</v>
+        <v>0NB200116</v>
       </c>
       <c r="C360" t="str">
-        <v>3612</v>
+        <v>APS 400</v>
       </c>
       <c r="D360" t="str">
         <v>V007110</v>
@@ -6502,13 +6502,13 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>6717130</v>
+        <v>6717308</v>
       </c>
       <c r="B361" t="str">
-        <v>09RC00547</v>
+        <v>7093936C1</v>
       </c>
       <c r="C361" t="str">
-        <v>3612</v>
+        <v/>
       </c>
       <c r="D361" t="str">
         <v>V007110</v>
@@ -6519,13 +6519,13 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>6717131</v>
+        <v>6717309</v>
       </c>
       <c r="B362" t="str">
-        <v>0REH08637</v>
+        <v>090N71476</v>
       </c>
       <c r="C362" t="str">
-        <v/>
+        <v>3208</v>
       </c>
       <c r="D362" t="str">
         <v>V007110</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>6717132</v>
+        <v>6717310</v>
       </c>
       <c r="B363" t="str">
-        <v>C114384</v>
+        <v>0BDN01827</v>
       </c>
       <c r="C363" t="str">
         <v/>
@@ -6553,13 +6553,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>6717133</v>
+        <v>6717311</v>
       </c>
       <c r="B364" t="str">
-        <v>C114385</v>
+        <v>06TB24861</v>
       </c>
       <c r="C364" t="str">
-        <v/>
+        <v>3406B</v>
       </c>
       <c r="D364" t="str">
         <v>V007110</v>
@@ -6570,13 +6570,13 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>6717134</v>
+        <v>6717312</v>
       </c>
       <c r="B365" t="str">
-        <v>0B4H01657</v>
+        <v>06TB22186</v>
       </c>
       <c r="C365" t="str">
-        <v>GEP110</v>
+        <v>3406C</v>
       </c>
       <c r="D365" t="str">
         <v>V007110</v>
@@ -6587,13 +6587,13 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>6717135</v>
+        <v>6717313</v>
       </c>
       <c r="B366" t="str">
-        <v>0C5H02135</v>
+        <v>06TB12496</v>
       </c>
       <c r="C366" t="str">
-        <v>C15</v>
+        <v>3406</v>
       </c>
       <c r="D366" t="str">
         <v>V007110</v>
@@ -6604,13 +6604,13 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>6717136</v>
+        <v>6717314</v>
       </c>
       <c r="B367" t="str">
-        <v>0C5H02396</v>
+        <v>06TB20993</v>
       </c>
       <c r="C367" t="str">
-        <v>C15</v>
+        <v>3406C</v>
       </c>
       <c r="D367" t="str">
         <v>V007110</v>
@@ -6621,13 +6621,13 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>6717137</v>
+        <v>6717315</v>
       </c>
       <c r="B368" t="str">
-        <v>0C5H02854</v>
+        <v>06TB21434</v>
       </c>
       <c r="C368" t="str">
-        <v>C15</v>
+        <v>3406C</v>
       </c>
       <c r="D368" t="str">
         <v>V007110</v>
@@ -6638,13 +6638,13 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>6717138</v>
+        <v>6717316</v>
       </c>
       <c r="B369" t="str">
-        <v>0YAM00639</v>
+        <v>0G9R00129</v>
       </c>
       <c r="C369" t="str">
-        <v>3512B</v>
+        <v/>
       </c>
       <c r="D369" t="str">
         <v>V007110</v>
@@ -6655,13 +6655,13 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>6717139</v>
+        <v>6717317</v>
       </c>
       <c r="B370" t="str">
-        <v>0ECL00287</v>
+        <v>0G9R01055</v>
       </c>
       <c r="C370" t="str">
-        <v>DE110E2CA</v>
+        <v/>
       </c>
       <c r="D370" t="str">
         <v>V007110</v>
@@ -6672,1945 +6672,262 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>6717140</v>
+        <v>6717318</v>
       </c>
       <c r="B371" t="str">
-        <v>0X3R00557</v>
+        <v>0ZAP00114</v>
       </c>
       <c r="C371" t="str">
-        <v>XQ230</v>
+        <v>3516</v>
       </c>
       <c r="D371" t="str">
-        <v>V007110</v>
+        <v>V007310</v>
       </c>
       <c r="E371" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>6717141</v>
+        <v>6717319</v>
       </c>
       <c r="B372" t="str">
-        <v>018800005</v>
+        <v>0BPD00821</v>
       </c>
       <c r="C372" t="str">
-        <v/>
+        <v>3516</v>
       </c>
       <c r="D372" t="str">
-        <v>V007110</v>
+        <v>V007310</v>
       </c>
       <c r="E372" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>6717142</v>
+        <v>6801625</v>
       </c>
       <c r="B373" t="str">
-        <v>08JJ00552</v>
+        <v>0JAZ02353</v>
       </c>
       <c r="C373" t="str">
-        <v>3306B</v>
+        <v>C32</v>
       </c>
       <c r="D373" t="str">
-        <v>V007110</v>
+        <v>V008700</v>
       </c>
       <c r="E373" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>STATOIL SOUTH</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>6717143</v>
+        <v>69C1806</v>
       </c>
       <c r="B374" t="str">
-        <v>0NB200116</v>
+        <v/>
       </c>
       <c r="C374" t="str">
-        <v>APS 400</v>
+        <v/>
       </c>
       <c r="D374" t="str">
-        <v>V007110</v>
+        <v>S69CONS</v>
       </c>
       <c r="E374" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>SHOP CONSUMABLES MONTHLY WO</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>6717144</v>
+        <v>69M1806</v>
       </c>
       <c r="B375" t="str">
-        <v>7093936C1</v>
+        <v/>
       </c>
       <c r="C375" t="str">
         <v/>
       </c>
       <c r="D375" t="str">
-        <v>V007110</v>
+        <v>S69MONT</v>
       </c>
       <c r="E375" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>GENERAL SHOP MONTHLY WO</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>6717145</v>
+        <v>69R1806</v>
       </c>
       <c r="B376" t="str">
-        <v>090N71476</v>
+        <v/>
       </c>
       <c r="C376" t="str">
-        <v>3208</v>
+        <v/>
       </c>
       <c r="D376" t="str">
-        <v>V007110</v>
+        <v>S6960ED</v>
       </c>
       <c r="E376" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>INTERNAL CHARGES ENGINE AND</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>6717146</v>
+        <v>6900680</v>
       </c>
       <c r="B377" t="str">
-        <v>0BDN01827</v>
+        <v>0SLG01467</v>
       </c>
       <c r="C377" t="str">
-        <v/>
+        <v>TH560</v>
       </c>
       <c r="D377" t="str">
-        <v>V007110</v>
+        <v>V008216</v>
       </c>
       <c r="E377" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>F E S CONSTRUCTION CO. LTD.</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>6717147</v>
+        <v>6900696</v>
       </c>
       <c r="B378" t="str">
-        <v>06TB24861</v>
+        <v>0N6D00834</v>
       </c>
       <c r="C378" t="str">
-        <v>3406B</v>
+        <v/>
       </c>
       <c r="D378" t="str">
-        <v>V007110</v>
+        <v>V008927</v>
       </c>
       <c r="E378" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>SPANISH CAY RESORT</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>6717148</v>
+        <v>6900704</v>
       </c>
       <c r="B379" t="str">
-        <v>06TB22186</v>
+        <v>08TK01317</v>
       </c>
       <c r="C379" t="str">
-        <v>3406C</v>
+        <v>950F</v>
       </c>
       <c r="D379" t="str">
-        <v>V007110</v>
+        <v>V000928</v>
       </c>
       <c r="E379" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>REDTOP BLOCK</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>6717149</v>
+        <v>6900705</v>
       </c>
       <c r="B380" t="str">
-        <v>06TB12496</v>
+        <v>AT34A00387</v>
       </c>
       <c r="C380" t="str">
-        <v>3406</v>
+        <v>GP18N5</v>
       </c>
       <c r="D380" t="str">
-        <v>V007110</v>
+        <v>V000474</v>
       </c>
       <c r="E380" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>CASH SALE ABACO</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>6717150</v>
+        <v>6900710</v>
       </c>
       <c r="B381" t="str">
-        <v>06TB20993</v>
+        <v>09HP02135</v>
       </c>
       <c r="C381" t="str">
-        <v>3406C</v>
+        <v>C-12</v>
       </c>
       <c r="D381" t="str">
-        <v>V007110</v>
+        <v>V000474</v>
       </c>
       <c r="E381" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>CASH SALE ABACO</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>6717151</v>
+        <v>6900711</v>
       </c>
       <c r="B382" t="str">
-        <v>06TB21434</v>
+        <v/>
       </c>
       <c r="C382" t="str">
-        <v>3406C</v>
+        <v/>
       </c>
       <c r="D382" t="str">
-        <v>V007110</v>
+        <v>V008912</v>
       </c>
       <c r="E382" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>DON MANLEY</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>6717152</v>
+        <v>6900717</v>
       </c>
       <c r="B383" t="str">
-        <v>0G9R00129</v>
+        <v/>
       </c>
       <c r="C383" t="str">
         <v/>
       </c>
       <c r="D383" t="str">
-        <v>V007110</v>
+        <v>VG90029</v>
       </c>
       <c r="E383" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>B.E.C. ABACO</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>6717153</v>
+        <v>6900718</v>
       </c>
       <c r="B384" t="str">
-        <v>0G9R01055</v>
+        <v>CEC501544</v>
       </c>
       <c r="C384" t="str">
         <v/>
       </c>
       <c r="D384" t="str">
-        <v>V007110</v>
+        <v>V000474</v>
       </c>
       <c r="E384" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
+        <v>CASH SALE ABACO</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>6717154</v>
+        <v>6900719</v>
       </c>
       <c r="B385" t="str">
-        <v>0ZAP00114</v>
+        <v>K1100715</v>
       </c>
       <c r="C385" t="str">
-        <v>3516</v>
+        <v/>
       </c>
       <c r="D385" t="str">
-        <v>V007310</v>
+        <v>V000474</v>
       </c>
       <c r="E385" t="str">
-        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="str">
-        <v>6717155</v>
-      </c>
-      <c r="B386" t="str">
-        <v>0BPD00821</v>
-      </c>
-      <c r="C386" t="str">
-        <v>3516</v>
-      </c>
-      <c r="D386" t="str">
-        <v>V007310</v>
-      </c>
-      <c r="E386" t="str">
-        <v>PHARMACHEM TECHNOLOGIES G.B.</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="str">
-        <v>6717157</v>
-      </c>
-      <c r="B387" t="str">
-        <v>01DZ01647</v>
-      </c>
-      <c r="C387" t="str">
-        <v>3406C</v>
-      </c>
-      <c r="D387" t="str">
-        <v>V008796</v>
-      </c>
-      <c r="E387" t="str">
-        <v>GALLERIA CINEMAS</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="str">
-        <v>6717160</v>
-      </c>
-      <c r="B388" t="str">
-        <v>0NAP01562</v>
-      </c>
-      <c r="C388" t="str">
-        <v>C15</v>
-      </c>
-      <c r="D388" t="str">
-        <v>V007543</v>
-      </c>
-      <c r="E388" t="str">
-        <v>BAHAMIAN BREWERY &amp; BEV. CO.</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="str">
-        <v>6717161</v>
-      </c>
-      <c r="B389" t="str">
-        <v>ALEL02774</v>
-      </c>
-      <c r="C389" t="str">
-        <v/>
-      </c>
-      <c r="D389" t="str">
-        <v>V007250</v>
-      </c>
-      <c r="E389" t="str">
-        <v>SUNSHINE LAUNDROMAT</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="str">
-        <v>6717165</v>
-      </c>
-      <c r="B390" t="str">
-        <v>CRPF10411</v>
-      </c>
-      <c r="C390" t="str">
-        <v/>
-      </c>
-      <c r="D390" t="str">
-        <v>V007006</v>
-      </c>
-      <c r="E390" t="str">
-        <v>ANDRE AND DALIA FELDMAN</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="str">
-        <v>6717166</v>
-      </c>
-      <c r="B391" t="str">
-        <v/>
-      </c>
-      <c r="C391" t="str">
-        <v/>
-      </c>
-      <c r="D391" t="str">
-        <v>V007031</v>
-      </c>
-      <c r="E391" t="str">
-        <v>GLEMINE INVESTMENTS LTD.</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="str">
-        <v>6717169</v>
-      </c>
-      <c r="B392" t="str">
-        <v>067U17541</v>
-      </c>
-      <c r="C392" t="str">
-        <v>3408C</v>
-      </c>
-      <c r="D392" t="str">
-        <v>V002795</v>
-      </c>
-      <c r="E392" t="str">
-        <v>CONSOLIDATED WATER(BAH)LTD.</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="str">
-        <v>6717170</v>
-      </c>
-      <c r="B393" t="str">
-        <v>067U17541</v>
-      </c>
-      <c r="C393" t="str">
-        <v>3408C</v>
-      </c>
-      <c r="D393" t="str">
-        <v>V002795</v>
-      </c>
-      <c r="E393" t="str">
-        <v>CONSOLIDATED WATER(BAH)LTD.</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="str">
-        <v>6717173</v>
-      </c>
-      <c r="B394" t="str">
-        <v>AT14F00520</v>
-      </c>
-      <c r="C394" t="str">
-        <v>DP30NT</v>
-      </c>
-      <c r="D394" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E394" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="str">
-        <v>6717176</v>
-      </c>
-      <c r="B395" t="str">
-        <v>0LYF00878</v>
-      </c>
-      <c r="C395" t="str">
-        <v>422F2</v>
-      </c>
-      <c r="D395" t="str">
-        <v>V007712</v>
-      </c>
-      <c r="E395" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="str">
-        <v>6717177</v>
-      </c>
-      <c r="B396" t="str">
-        <v>0LYF00878</v>
-      </c>
-      <c r="C396" t="str">
-        <v>422F2</v>
-      </c>
-      <c r="D396" t="str">
-        <v>V007712</v>
-      </c>
-      <c r="E396" t="str">
-        <v>FREEPORT HARBOUR CO. LTD.</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="str">
-        <v>6717179</v>
-      </c>
-      <c r="B397" t="str">
-        <v>AT15E20106</v>
-      </c>
-      <c r="C397" t="str">
-        <v/>
-      </c>
-      <c r="D397" t="str">
-        <v>E6755KK</v>
-      </c>
-      <c r="E397" t="str">
-        <v>CAT WARRANTY GENERIC</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="str">
-        <v>6717180</v>
-      </c>
-      <c r="B398" t="str">
-        <v>AT14F00530</v>
-      </c>
-      <c r="C398" t="str">
-        <v>DP30NT</v>
-      </c>
-      <c r="D398" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E398" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="str">
-        <v>6717182</v>
-      </c>
-      <c r="B399" t="str">
-        <v>A30034188</v>
-      </c>
-      <c r="C399" t="str">
-        <v/>
-      </c>
-      <c r="D399" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E399" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="str">
-        <v>6717183</v>
-      </c>
-      <c r="B400" t="str">
-        <v>A30034188</v>
-      </c>
-      <c r="C400" t="str">
-        <v/>
-      </c>
-      <c r="D400" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E400" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="str">
-        <v>6717184</v>
-      </c>
-      <c r="B401" t="str">
-        <v>AT18D00542</v>
-      </c>
-      <c r="C401" t="str">
-        <v/>
-      </c>
-      <c r="D401" t="str">
-        <v>E6755KK</v>
-      </c>
-      <c r="E401" t="str">
-        <v>CAT WARRANTY GENERIC</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="str">
-        <v>6717187</v>
-      </c>
-      <c r="B402" t="str">
-        <v>0C5H01637</v>
-      </c>
-      <c r="C402" t="str">
-        <v>C15</v>
-      </c>
-      <c r="D402" t="str">
-        <v>V007778</v>
-      </c>
-      <c r="E402" t="str">
-        <v>THE OCEANVIEW OWNERS</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="str">
-        <v>6717188</v>
-      </c>
-      <c r="B403" t="str">
-        <v>0C5H01637</v>
-      </c>
-      <c r="C403" t="str">
-        <v>C15</v>
-      </c>
-      <c r="D403" t="str">
-        <v>V007778</v>
-      </c>
-      <c r="E403" t="str">
-        <v>THE OCEANVIEW OWNERS</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="str">
-        <v>6717189</v>
-      </c>
-      <c r="B404" t="str">
-        <v>0GTH00567</v>
-      </c>
-      <c r="C404" t="str">
-        <v>DE110E2CA</v>
-      </c>
-      <c r="D404" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E404" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="str">
-        <v>6717190</v>
-      </c>
-      <c r="B405" t="str">
-        <v>300167958</v>
-      </c>
-      <c r="C405" t="str">
-        <v/>
-      </c>
-      <c r="D405" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E405" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="str">
-        <v>6717191</v>
-      </c>
-      <c r="B406" t="str">
-        <v>3001671959</v>
-      </c>
-      <c r="C406" t="str">
-        <v/>
-      </c>
-      <c r="D406" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E406" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="str">
-        <v>6717192</v>
-      </c>
-      <c r="B407" t="str">
-        <v>300135078</v>
-      </c>
-      <c r="C407" t="str">
-        <v/>
-      </c>
-      <c r="D407" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E407" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="str">
-        <v>6717193</v>
-      </c>
-      <c r="B408" t="str">
-        <v>200193650</v>
-      </c>
-      <c r="C408" t="str">
-        <v/>
-      </c>
-      <c r="D408" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E408" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="str">
-        <v>6717194</v>
-      </c>
-      <c r="B409" t="str">
-        <v>200193650</v>
-      </c>
-      <c r="C409" t="str">
-        <v/>
-      </c>
-      <c r="D409" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E409" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="str">
-        <v>6717195</v>
-      </c>
-      <c r="B410" t="str">
-        <v/>
-      </c>
-      <c r="C410" t="str">
-        <v/>
-      </c>
-      <c r="D410" t="str">
-        <v>V007502</v>
-      </c>
-      <c r="E410" t="str">
-        <v>MOTHERWELL BRIDGE BHICAM LIM</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="str">
-        <v>6717198</v>
-      </c>
-      <c r="B411" t="str">
-        <v>AT14F00585</v>
-      </c>
-      <c r="C411" t="str">
-        <v>DP30NM5</v>
-      </c>
-      <c r="D411" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E411" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="str">
-        <v>6717199</v>
-      </c>
-      <c r="B412" t="str">
-        <v>0MLG00170</v>
-      </c>
-      <c r="C412" t="str">
-        <v>TL642D</v>
-      </c>
-      <c r="D412" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E412" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="str">
-        <v>6717200</v>
-      </c>
-      <c r="B413" t="str">
-        <v>AT19D90191</v>
-      </c>
-      <c r="C413" t="str">
-        <v>DP50K</v>
-      </c>
-      <c r="D413" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E413" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="str">
-        <v>6717201</v>
-      </c>
-      <c r="B414" t="str">
-        <v>AT15E20092</v>
-      </c>
-      <c r="C414" t="str">
-        <v>DP100</v>
-      </c>
-      <c r="D414" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E414" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="str">
-        <v>6717202</v>
-      </c>
-      <c r="B415" t="str">
-        <v>AT14F00760</v>
-      </c>
-      <c r="C415" t="str">
-        <v>DP30NM5</v>
-      </c>
-      <c r="D415" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E415" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="str">
-        <v>6717203</v>
-      </c>
-      <c r="B416" t="str">
-        <v>067V21515</v>
-      </c>
-      <c r="C416" t="str">
-        <v/>
-      </c>
-      <c r="D416" t="str">
-        <v>E6755KK</v>
-      </c>
-      <c r="E416" t="str">
-        <v>CAT WARRANTY GENERIC</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="str">
-        <v>6717204</v>
-      </c>
-      <c r="B417" t="str">
-        <v>AT14F00746</v>
-      </c>
-      <c r="C417" t="str">
-        <v>DP30NM5</v>
-      </c>
-      <c r="D417" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E417" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="str">
-        <v>6717205</v>
-      </c>
-      <c r="B418" t="str">
-        <v>AT19D90195</v>
-      </c>
-      <c r="C418" t="str">
-        <v>DP50K</v>
-      </c>
-      <c r="D418" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E418" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="str">
-        <v>6717206</v>
-      </c>
-      <c r="B419" t="str">
-        <v>24233293</v>
-      </c>
-      <c r="C419" t="str">
-        <v>LTN6C</v>
-      </c>
-      <c r="D419" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E419" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="str">
-        <v>6717207</v>
-      </c>
-      <c r="B420" t="str">
-        <v>24282317</v>
-      </c>
-      <c r="C420" t="str">
-        <v>LTN6C</v>
-      </c>
-      <c r="D420" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E420" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="str">
-        <v>6717208</v>
-      </c>
-      <c r="B421" t="str">
-        <v>24233278</v>
-      </c>
-      <c r="C421" t="str">
-        <v>LTN6C</v>
-      </c>
-      <c r="D421" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E421" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="str">
-        <v>6717209</v>
-      </c>
-      <c r="B422" t="str">
-        <v>24325380</v>
-      </c>
-      <c r="C422" t="str">
-        <v>LTN6K</v>
-      </c>
-      <c r="D422" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E422" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="str">
-        <v>6717211</v>
-      </c>
-      <c r="B423" t="str">
-        <v>0XPL00116</v>
-      </c>
-      <c r="C423" t="str">
-        <v/>
-      </c>
-      <c r="D423" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E423" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="str">
-        <v>6717212</v>
-      </c>
-      <c r="B424" t="str">
-        <v>0PWK02076</v>
-      </c>
-      <c r="C424" t="str">
-        <v>216B</v>
-      </c>
-      <c r="D424" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E424" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="str">
-        <v>6717213</v>
-      </c>
-      <c r="B425" t="str">
-        <v/>
-      </c>
-      <c r="C425" t="str">
-        <v/>
-      </c>
-      <c r="D425" t="str">
-        <v>V007390</v>
-      </c>
-      <c r="E425" t="str">
-        <v>EXPRESS FOOD MART CO. LTD</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="str">
-        <v>6717214</v>
-      </c>
-      <c r="B426" t="str">
-        <v>0NBR00206</v>
-      </c>
-      <c r="C426" t="str">
-        <v>XQ2000</v>
-      </c>
-      <c r="D426" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E426" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="str">
-        <v>6717215</v>
-      </c>
-      <c r="B427" t="str">
-        <v>0300092364</v>
-      </c>
-      <c r="C427" t="str">
-        <v/>
-      </c>
-      <c r="D427" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E427" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="str">
-        <v>6717217</v>
-      </c>
-      <c r="B428" t="str">
-        <v>0EPS00795</v>
-      </c>
-      <c r="C428" t="str">
-        <v>3306B</v>
-      </c>
-      <c r="D428" t="str">
-        <v>V007113</v>
-      </c>
-      <c r="E428" t="str">
-        <v>BAHAMA REEF CONDOMINIUM</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="str">
-        <v>6717218</v>
-      </c>
-      <c r="B429" t="str">
-        <v>0HEN04205</v>
-      </c>
-      <c r="C429" t="str">
-        <v>236B</v>
-      </c>
-      <c r="D429" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E429" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="str">
-        <v>6717220</v>
-      </c>
-      <c r="B430" t="str">
-        <v>03FZ08920</v>
-      </c>
-      <c r="C430" t="str">
-        <v>3412C</v>
-      </c>
-      <c r="D430" t="str">
-        <v>V007733</v>
-      </c>
-      <c r="E430" t="str">
-        <v>GRAND BAHAMA POWER CO.LTD</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="str">
-        <v>6717221</v>
-      </c>
-      <c r="B431" t="str">
-        <v>24233287</v>
-      </c>
-      <c r="C431" t="str">
-        <v>LTN6C</v>
-      </c>
-      <c r="D431" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E431" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="str">
-        <v>6717222</v>
-      </c>
-      <c r="B432" t="str">
-        <v>AT15E20092</v>
-      </c>
-      <c r="C432" t="str">
-        <v>DP100</v>
-      </c>
-      <c r="D432" t="str">
-        <v>V007834</v>
-      </c>
-      <c r="E432" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="str">
-        <v>6717223</v>
-      </c>
-      <c r="B433" t="str">
-        <v>0NBR00206</v>
-      </c>
-      <c r="C433" t="str">
-        <v>XQ2000</v>
-      </c>
-      <c r="D433" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E433" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="str">
-        <v>6717224</v>
-      </c>
-      <c r="B434" t="str">
-        <v>065Z01530</v>
-      </c>
-      <c r="C434" t="str">
-        <v>3512</v>
-      </c>
-      <c r="D434" t="str">
-        <v>V007111</v>
-      </c>
-      <c r="E434" t="str">
-        <v>BUCKEYE BAHAMAS HUB LIMITED</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="str">
-        <v>6717225</v>
-      </c>
-      <c r="B435" t="str">
-        <v>0MKH00237</v>
-      </c>
-      <c r="C435" t="str">
-        <v>3512B</v>
-      </c>
-      <c r="D435" t="str">
-        <v>V007716</v>
-      </c>
-      <c r="E435" t="str">
-        <v>SVITZER BAHAMAS LTD.</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="str">
-        <v>6717229</v>
-      </c>
-      <c r="B436" t="str">
-        <v>AT14F00522</v>
-      </c>
-      <c r="C436" t="str">
-        <v>DP30NT</v>
-      </c>
-      <c r="D436" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E436" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="str">
-        <v>6717231</v>
-      </c>
-      <c r="B437" t="str">
-        <v>AT39A00072</v>
-      </c>
-      <c r="C437" t="str">
-        <v>DP160</v>
-      </c>
-      <c r="D437" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E437" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="str">
-        <v>6717232</v>
-      </c>
-      <c r="B438" t="str">
-        <v>0KCB37238</v>
-      </c>
-      <c r="C438" t="str">
-        <v>C13</v>
-      </c>
-      <c r="D438" t="str">
-        <v>V000778</v>
-      </c>
-      <c r="E438" t="str">
-        <v>CASH SALE-SERVICE FREEPORT</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="str">
-        <v>6717233</v>
-      </c>
-      <c r="B439" t="str">
-        <v>0NBR00206</v>
-      </c>
-      <c r="C439" t="str">
-        <v>XQ2000</v>
-      </c>
-      <c r="D439" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E439" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="str">
-        <v>6717234</v>
-      </c>
-      <c r="B440" t="str">
-        <v>0NBR00206</v>
-      </c>
-      <c r="C440" t="str">
-        <v>XQ2000</v>
-      </c>
-      <c r="D440" t="str">
-        <v>V007714</v>
-      </c>
-      <c r="E440" t="str">
-        <v>FREEPORT CONTAINER PORT</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="str">
-        <v>6717235</v>
-      </c>
-      <c r="B441" t="str">
-        <v>NB300102</v>
-      </c>
-      <c r="C441" t="str">
-        <v>APS 300</v>
-      </c>
-      <c r="D441" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E441" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="str">
-        <v>6717236</v>
-      </c>
-      <c r="B442" t="str">
-        <v>24326766</v>
-      </c>
-      <c r="C442" t="str">
-        <v>LTN6K</v>
-      </c>
-      <c r="D442" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E442" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="str">
-        <v>6717237</v>
-      </c>
-      <c r="B443" t="str">
-        <v>24325379</v>
-      </c>
-      <c r="C443" t="str">
-        <v>LTN6K</v>
-      </c>
-      <c r="D443" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E443" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="str">
-        <v>6717238</v>
-      </c>
-      <c r="B444" t="str">
-        <v>24233294</v>
-      </c>
-      <c r="C444" t="str">
-        <v>LTN6C</v>
-      </c>
-      <c r="D444" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E444" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="str">
-        <v>6717239</v>
-      </c>
-      <c r="B445" t="str">
-        <v>AT14F00526</v>
-      </c>
-      <c r="C445" t="str">
-        <v>DP30NT</v>
-      </c>
-      <c r="D445" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E445" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="str">
-        <v>6717240</v>
-      </c>
-      <c r="B446" t="str">
-        <v>AT14F00521</v>
-      </c>
-      <c r="C446" t="str">
-        <v>DP30NT</v>
-      </c>
-      <c r="D446" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E446" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="str">
-        <v>6717241</v>
-      </c>
-      <c r="B447" t="str">
-        <v>AT14F00761</v>
-      </c>
-      <c r="C447" t="str">
-        <v>DP30NM5</v>
-      </c>
-      <c r="D447" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E447" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="str">
-        <v>6717242</v>
-      </c>
-      <c r="B448" t="str">
-        <v>3001946525</v>
-      </c>
-      <c r="C448" t="str">
-        <v/>
-      </c>
-      <c r="D448" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E448" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="str">
-        <v>6717243</v>
-      </c>
-      <c r="B449" t="str">
-        <v>3001948845</v>
-      </c>
-      <c r="C449" t="str">
-        <v/>
-      </c>
-      <c r="D449" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E449" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="str">
-        <v>6717244</v>
-      </c>
-      <c r="B450" t="str">
-        <v>3001946457</v>
-      </c>
-      <c r="C450" t="str">
-        <v/>
-      </c>
-      <c r="D450" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E450" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="str">
-        <v>6717245</v>
-      </c>
-      <c r="B451" t="str">
-        <v/>
-      </c>
-      <c r="C451" t="str">
-        <v/>
-      </c>
-      <c r="D451" t="str">
-        <v>E6760KK</v>
-      </c>
-      <c r="E451" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="str">
-        <v>6717246</v>
-      </c>
-      <c r="B452" t="str">
-        <v>24367071</v>
-      </c>
-      <c r="C452" t="str">
-        <v>LTN6K</v>
-      </c>
-      <c r="D452" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E452" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="str">
-        <v>6717247</v>
-      </c>
-      <c r="B453" t="str">
-        <v>24325381</v>
-      </c>
-      <c r="C453" t="str">
-        <v>LTN6K</v>
-      </c>
-      <c r="D453" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E453" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="str">
-        <v>6717248</v>
-      </c>
-      <c r="B454" t="str">
-        <v>201512020016</v>
-      </c>
-      <c r="C454" t="str">
-        <v/>
-      </c>
-      <c r="D454" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E454" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="str">
-        <v>6717249</v>
-      </c>
-      <c r="B455" t="str">
-        <v>201610180011</v>
-      </c>
-      <c r="C455" t="str">
-        <v/>
-      </c>
-      <c r="D455" t="str">
-        <v>S675478</v>
-      </c>
-      <c r="E455" t="str">
-        <v>RENTAL COMMISSIONING</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="str">
-        <v>6717250</v>
-      </c>
-      <c r="B456" t="str">
-        <v>AT19D90191</v>
-      </c>
-      <c r="C456" t="str">
-        <v>DP50K</v>
-      </c>
-      <c r="D456" t="str">
-        <v>V007834</v>
-      </c>
-      <c r="E456" t="str">
-        <v>GRAND BAHAMA SHIPYARD</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="str">
-        <v>6717251</v>
-      </c>
-      <c r="B457" t="str">
-        <v/>
-      </c>
-      <c r="C457" t="str">
-        <v/>
-      </c>
-      <c r="D457" t="str">
-        <v>V004124</v>
-      </c>
-      <c r="E457" t="str">
-        <v>FORTIS TCI LIMITED</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="str">
-        <v>6717252</v>
-      </c>
-      <c r="B458" t="str">
-        <v/>
-      </c>
-      <c r="C458" t="str">
-        <v/>
-      </c>
-      <c r="D458" t="str">
-        <v>E6760KK</v>
-      </c>
-      <c r="E458" t="str">
-        <v>INTERNAL CHARGES SERVICE</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="str">
-        <v>6801618</v>
-      </c>
-      <c r="B459" t="str">
-        <v>0YAT00487</v>
-      </c>
-      <c r="C459" t="str">
-        <v>3516B</v>
-      </c>
-      <c r="D459" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E459" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="str">
-        <v>6801619</v>
-      </c>
-      <c r="B460" t="str">
-        <v>0YAT00488</v>
-      </c>
-      <c r="C460" t="str">
-        <v>3516B</v>
-      </c>
-      <c r="D460" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E460" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="str">
-        <v>6801620</v>
-      </c>
-      <c r="B461" t="str">
-        <v>0JAZ02353</v>
-      </c>
-      <c r="C461" t="str">
-        <v>C32</v>
-      </c>
-      <c r="D461" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E461" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="str">
-        <v>6801621</v>
-      </c>
-      <c r="B462" t="str">
-        <v>0JSC02406</v>
-      </c>
-      <c r="C462" t="str">
-        <v>C9 IND</v>
-      </c>
-      <c r="D462" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E462" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="str">
-        <v>6801622</v>
-      </c>
-      <c r="B463" t="str">
-        <v>0JSC20832</v>
-      </c>
-      <c r="C463" t="str">
-        <v>C9 IND</v>
-      </c>
-      <c r="D463" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E463" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="str">
-        <v>6801625</v>
-      </c>
-      <c r="B464" t="str">
-        <v>0JAZ02353</v>
-      </c>
-      <c r="C464" t="str">
-        <v>C32</v>
-      </c>
-      <c r="D464" t="str">
-        <v>V008700</v>
-      </c>
-      <c r="E464" t="str">
-        <v>STATOIL SOUTH</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="str">
-        <v>69C1805</v>
-      </c>
-      <c r="B465" t="str">
-        <v/>
-      </c>
-      <c r="C465" t="str">
-        <v/>
-      </c>
-      <c r="D465" t="str">
-        <v>S69CONS</v>
-      </c>
-      <c r="E465" t="str">
-        <v>SHOP CONSUMABLES MONTHLY WO</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="str">
-        <v>69M1805</v>
-      </c>
-      <c r="B466" t="str">
-        <v/>
-      </c>
-      <c r="C466" t="str">
-        <v/>
-      </c>
-      <c r="D466" t="str">
-        <v>S69MONT</v>
-      </c>
-      <c r="E466" t="str">
-        <v>GENERAL SHOP MONTHLY WO</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="str">
-        <v>69R1805</v>
-      </c>
-      <c r="B467" t="str">
-        <v/>
-      </c>
-      <c r="C467" t="str">
-        <v/>
-      </c>
-      <c r="D467" t="str">
-        <v>S6960ED</v>
-      </c>
-      <c r="E467" t="str">
-        <v>INTERNAL CHARGES ENGINE AND</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="str">
-        <v>6900675</v>
-      </c>
-      <c r="B468" t="str">
-        <v/>
-      </c>
-      <c r="C468" t="str">
-        <v/>
-      </c>
-      <c r="D468" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E468" t="str">
         <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="str">
-        <v>6900678</v>
-      </c>
-      <c r="B469" t="str">
-        <v>KLEY01133</v>
-      </c>
-      <c r="C469" t="str">
-        <v/>
-      </c>
-      <c r="D469" t="str">
-        <v>V002709</v>
-      </c>
-      <c r="E469" t="str">
-        <v>TEACHERS &amp; SALARIED WORKERS</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="str">
-        <v>6900680</v>
-      </c>
-      <c r="B470" t="str">
-        <v>0SLG01467</v>
-      </c>
-      <c r="C470" t="str">
-        <v>TH560</v>
-      </c>
-      <c r="D470" t="str">
-        <v>V008216</v>
-      </c>
-      <c r="E470" t="str">
-        <v>F E S CONSTRUCTION CO. LTD.</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="str">
-        <v>6900684</v>
-      </c>
-      <c r="B471" t="str">
-        <v>0LEL02504</v>
-      </c>
-      <c r="C471" t="str">
-        <v>GEP150</v>
-      </c>
-      <c r="D471" t="str">
-        <v>V002709</v>
-      </c>
-      <c r="E471" t="str">
-        <v>TEACHERS &amp; SALARIED WORKERS</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="str">
-        <v>6900694</v>
-      </c>
-      <c r="B472" t="str">
-        <v>EC501544</v>
-      </c>
-      <c r="C472" t="str">
-        <v/>
-      </c>
-      <c r="D472" t="str">
-        <v>V000968</v>
-      </c>
-      <c r="E472" t="str">
-        <v>SIR EDEN LTD</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="str">
-        <v>6900695</v>
-      </c>
-      <c r="B473" t="str">
-        <v>PII611689</v>
-      </c>
-      <c r="C473" t="str">
-        <v/>
-      </c>
-      <c r="D473" t="str">
-        <v>V007621</v>
-      </c>
-      <c r="E473" t="str">
-        <v>RENAL CARE LIMITED</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="str">
-        <v>6900696</v>
-      </c>
-      <c r="B474" t="str">
-        <v>0N6D00834</v>
-      </c>
-      <c r="C474" t="str">
-        <v/>
-      </c>
-      <c r="D474" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E474" t="str">
-        <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="str">
-        <v>6900703</v>
-      </c>
-      <c r="B475" t="str">
-        <v/>
-      </c>
-      <c r="C475" t="str">
-        <v/>
-      </c>
-      <c r="D475" t="str">
-        <v>V000295</v>
-      </c>
-      <c r="E475" t="str">
-        <v>BAKER'S BAY GOLF &amp; OCEAN</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="str">
-        <v>6900704</v>
-      </c>
-      <c r="B476" t="str">
-        <v>08TK01317</v>
-      </c>
-      <c r="C476" t="str">
-        <v>950F</v>
-      </c>
-      <c r="D476" t="str">
-        <v>V000928</v>
-      </c>
-      <c r="E476" t="str">
-        <v>REDTOP BLOCK</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="str">
-        <v>6900705</v>
-      </c>
-      <c r="B477" t="str">
-        <v>AT34A00387</v>
-      </c>
-      <c r="C477" t="str">
-        <v>GP18N5</v>
-      </c>
-      <c r="D477" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E477" t="str">
-        <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="str">
-        <v>6900707</v>
-      </c>
-      <c r="B478" t="str">
-        <v/>
-      </c>
-      <c r="C478" t="str">
-        <v/>
-      </c>
-      <c r="D478" t="str">
-        <v>V000051</v>
-      </c>
-      <c r="E478" t="str">
-        <v>CREDIT CARD RECEIVABLES</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="str">
-        <v>6900708</v>
-      </c>
-      <c r="B479" t="str">
-        <v/>
-      </c>
-      <c r="C479" t="str">
-        <v/>
-      </c>
-      <c r="D479" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E479" t="str">
-        <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>6900709</v>
-      </c>
-      <c r="B480" t="str">
-        <v>0G6B00461</v>
-      </c>
-      <c r="C480" t="str">
-        <v/>
-      </c>
-      <c r="D480" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E480" t="str">
-        <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>6900710</v>
-      </c>
-      <c r="B481" t="str">
-        <v>09HP02135</v>
-      </c>
-      <c r="C481" t="str">
-        <v>C-12</v>
-      </c>
-      <c r="D481" t="str">
-        <v>V000474</v>
-      </c>
-      <c r="E481" t="str">
-        <v>CASH SALE ABACO</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>6900711</v>
-      </c>
-      <c r="B482" t="str">
-        <v/>
-      </c>
-      <c r="C482" t="str">
-        <v/>
-      </c>
-      <c r="D482" t="str">
-        <v>V008912</v>
-      </c>
-      <c r="E482" t="str">
-        <v>DON MANLEY</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>6900712</v>
-      </c>
-      <c r="B483" t="str">
-        <v>P11611089</v>
-      </c>
-      <c r="C483" t="str">
-        <v/>
-      </c>
-      <c r="D483" t="str">
-        <v>V007621</v>
-      </c>
-      <c r="E483" t="str">
-        <v>RENAL CARE LIMITED</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>6900715</v>
-      </c>
-      <c r="B484" t="str">
-        <v>0LDY00222</v>
-      </c>
-      <c r="C484" t="str">
-        <v>430F</v>
-      </c>
-      <c r="D484" t="str">
-        <v>V000295</v>
-      </c>
-      <c r="E484" t="str">
-        <v>BAKER'S BAY GOLF &amp; OCEAN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E484"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E385"/>
   </ignoredErrors>
 </worksheet>
 </file>